--- a/DJA75O_0325/DJA75Ogyak7.xlsx
+++ b/DJA75O_0325/DJA75Ogyak7.xlsx
@@ -235,22 +235,22 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +535,7 @@
   <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,43 +548,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="M2" s="5" t="s">
+      <c r="K2" s="12"/>
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -611,53 +611,53 @@
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>60</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>60</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>60</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>60</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="5" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>5</v>
       </c>
     </row>
@@ -665,44 +665,44 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f>$N$5+C5/4+2*$N$3</f>
         <v>60.125</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f>A5*$N$2</f>
         <v>0.5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>$N$5+E5/4+2*$N$3</f>
         <v>60.125</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <f>A5*$N$2</f>
         <v>0.5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f>$N$5+G5/4+2*$N$3</f>
         <v>60.125</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>A5*$N$2</f>
         <v>0.5</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>$N$5+I5/4+2*$N$5</f>
         <v>180.125</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <f>A5*$N$2</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="5"/>
-      <c r="M5" s="5" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>60</v>
       </c>
     </row>
@@ -710,386 +710,386 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f t="shared" ref="B6:B69" si="0">$N$5+C6/4+2*$N$3</f>
         <v>60.25</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f t="shared" ref="C6:C69" si="1">A6*$N$2</f>
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" ref="D6:D69" si="2">$N$5+E6/4+2*$N$3</f>
         <v>60.25</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <f t="shared" ref="E6:E69" si="3">A6*$N$2</f>
         <v>1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f t="shared" ref="F6:F69" si="4">$N$5+G6/4+2*$N$3</f>
         <v>60.25</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" ref="G6:G69" si="5">A6*$N$2</f>
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f t="shared" ref="H6:H69" si="6">$N$5+I6/4+2*$N$5</f>
         <v>180.25</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <f t="shared" ref="I6:I69" si="7">A6*$N$2</f>
         <v>1</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>60.375</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="2"/>
         <v>60.375</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <f t="shared" si="4"/>
         <v>60.375</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="6"/>
         <v>180.375</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="2"/>
         <v>60.5</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="6"/>
         <v>180.5</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>60.625</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="2"/>
         <v>60.625</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <f t="shared" si="4"/>
         <v>60.625</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f t="shared" si="6"/>
         <v>180.625</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>60.75</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="2"/>
         <v>60.75</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <f t="shared" si="4"/>
         <v>60.75</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <f t="shared" si="6"/>
         <v>180.75</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>60.875</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="2"/>
         <v>60.875</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <f t="shared" si="4"/>
         <v>60.875</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f t="shared" si="6"/>
         <v>180.875</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f t="shared" si="6"/>
         <v>181</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>61.125</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="2"/>
         <v>61.125</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <f t="shared" si="4"/>
         <v>61.125</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f t="shared" si="6"/>
         <v>181.125</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="8">
         <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>61.25</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="2"/>
         <v>61.25</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <f t="shared" si="4"/>
         <v>61.25</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f t="shared" si="6"/>
         <v>181.25</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="8">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="5"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>61.375</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="2"/>
         <v>61.375</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <f t="shared" si="4"/>
         <v>61.375</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <f t="shared" si="6"/>
         <v>181.375</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="8">
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
@@ -1098,35 +1098,35 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <f t="shared" si="6"/>
         <v>181.5</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
@@ -1135,35 +1135,35 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>61.625</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="2"/>
         <v>61.625</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <f t="shared" si="4"/>
         <v>61.625</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <f t="shared" si="6"/>
         <v>181.625</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
@@ -1172,35 +1172,35 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>61.75</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="2"/>
         <v>61.75</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <f t="shared" si="4"/>
         <v>61.75</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <f t="shared" si="6"/>
         <v>181.75</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="8">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -1209,35 +1209,35 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>61.875</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="2"/>
         <v>61.875</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <f t="shared" si="4"/>
         <v>61.875</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <f t="shared" si="6"/>
         <v>181.875</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
@@ -1246,35 +1246,35 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <f t="shared" si="6"/>
         <v>182</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="8">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
@@ -1283,35 +1283,35 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>62.125</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <f t="shared" si="2"/>
         <v>62.125</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <f t="shared" si="4"/>
         <v>62.125</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <f t="shared" si="6"/>
         <v>182.125</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="8">
         <f t="shared" si="7"/>
         <v>8.5</v>
       </c>
@@ -1320,35 +1320,35 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>62.25</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="2"/>
         <v>62.25</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <f t="shared" si="4"/>
         <v>62.25</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <f t="shared" si="6"/>
         <v>182.25</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
@@ -1357,35 +1357,35 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>62.375</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="2"/>
         <v>62.375</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <f t="shared" si="4"/>
         <v>62.375</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <f t="shared" si="6"/>
         <v>182.375</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="8">
         <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
@@ -1394,35 +1394,35 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <f t="shared" si="6"/>
         <v>182.5</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="8">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
@@ -1431,35 +1431,35 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>62.625</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f t="shared" si="2"/>
         <v>62.625</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <f t="shared" si="4"/>
         <v>62.625</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <f t="shared" si="6"/>
         <v>182.625</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="8">
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
@@ -1468,35 +1468,35 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>62.75</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="2"/>
         <v>62.75</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="8">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="7">
         <f t="shared" si="4"/>
         <v>62.75</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <f t="shared" si="6"/>
         <v>182.75</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="8">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
@@ -1505,35 +1505,35 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>62.875</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="2"/>
         <v>62.875</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <f t="shared" si="4"/>
         <v>62.875</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <f t="shared" si="6"/>
         <v>182.875</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <f t="shared" si="7"/>
         <v>11.5</v>
       </c>
@@ -1542,35 +1542,35 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="7">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <f t="shared" si="6"/>
         <v>183</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="8">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
@@ -1579,35 +1579,35 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>63.125</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="2"/>
         <v>63.125</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="7">
         <f t="shared" si="4"/>
         <v>63.125</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <f t="shared" si="6"/>
         <v>183.125</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="8">
         <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
@@ -1616,35 +1616,35 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>63.25</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="2"/>
         <v>63.25</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="7">
         <f t="shared" si="4"/>
         <v>63.25</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <f t="shared" si="6"/>
         <v>183.25</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="8">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
@@ -1653,35 +1653,35 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>63.375</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="2"/>
         <v>63.375</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <f t="shared" si="4"/>
         <v>63.375</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <f t="shared" si="6"/>
         <v>183.375</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="8">
         <f t="shared" si="7"/>
         <v>13.5</v>
       </c>
@@ -1690,35 +1690,35 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>63.5</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="2"/>
         <v>63.5</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="7">
         <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <f t="shared" si="6"/>
         <v>183.5</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="8">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
@@ -1727,35 +1727,35 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>63.625</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="2"/>
         <v>63.625</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="8">
         <f t="shared" si="3"/>
         <v>14.5</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <f t="shared" si="4"/>
         <v>63.625</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <f t="shared" si="5"/>
         <v>14.5</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <f t="shared" si="6"/>
         <v>183.625</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="8">
         <f t="shared" si="7"/>
         <v>14.5</v>
       </c>
@@ -1764,35 +1764,35 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <f t="shared" si="0"/>
         <v>63.75</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="2"/>
         <v>63.75</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="8">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <f t="shared" si="4"/>
         <v>63.75</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <f t="shared" si="6"/>
         <v>183.75</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="8">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
@@ -1801,35 +1801,35 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <f t="shared" si="0"/>
         <v>63.875</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="2"/>
         <v>63.875</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="8">
         <f t="shared" si="3"/>
         <v>15.5</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <f t="shared" si="4"/>
         <v>63.875</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <f t="shared" si="5"/>
         <v>15.5</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <f t="shared" si="6"/>
         <v>183.875</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="8">
         <f t="shared" si="7"/>
         <v>15.5</v>
       </c>
@@ -1838,35 +1838,35 @@
       <c r="A36" s="1">
         <v>32</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="7">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <f t="shared" si="6"/>
         <v>184</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="8">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
@@ -1875,35 +1875,35 @@
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <f t="shared" si="0"/>
         <v>64.125</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <f t="shared" si="2"/>
         <v>64.125</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="7">
         <f t="shared" si="4"/>
         <v>64.125</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <f t="shared" si="6"/>
         <v>184.125</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="8">
         <f t="shared" si="7"/>
         <v>16.5</v>
       </c>
@@ -1912,35 +1912,35 @@
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <f t="shared" si="0"/>
         <v>64.25</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <f t="shared" si="2"/>
         <v>64.25</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="7">
         <f t="shared" si="4"/>
         <v>64.25</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <f t="shared" si="6"/>
         <v>184.25</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="8">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
@@ -1949,35 +1949,35 @@
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <f t="shared" si="0"/>
         <v>64.375</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <f t="shared" si="2"/>
         <v>64.375</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <f t="shared" si="3"/>
         <v>17.5</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <f t="shared" si="4"/>
         <v>64.375</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <f t="shared" si="6"/>
         <v>184.375</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="8">
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
@@ -1986,35 +1986,35 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <f t="shared" si="0"/>
         <v>64.5</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <f t="shared" si="2"/>
         <v>64.5</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="7">
         <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <f t="shared" si="6"/>
         <v>184.5</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="8">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
@@ -2023,35 +2023,35 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <f t="shared" si="0"/>
         <v>64.625</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <f t="shared" si="2"/>
         <v>64.625</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <f t="shared" si="3"/>
         <v>18.5</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="7">
         <f t="shared" si="4"/>
         <v>64.625</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <f t="shared" si="5"/>
         <v>18.5</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <f t="shared" si="6"/>
         <v>184.625</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="8">
         <f t="shared" si="7"/>
         <v>18.5</v>
       </c>
@@ -2060,35 +2060,35 @@
       <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <f t="shared" si="0"/>
         <v>64.75</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <f t="shared" si="2"/>
         <v>64.75</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="8">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="7">
         <f t="shared" si="4"/>
         <v>64.75</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <f t="shared" si="6"/>
         <v>184.75</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="8">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
@@ -2097,35 +2097,35 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <f t="shared" si="0"/>
         <v>64.875</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <f t="shared" si="2"/>
         <v>64.875</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="8">
         <f t="shared" si="3"/>
         <v>19.5</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="7">
         <f t="shared" si="4"/>
         <v>64.875</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <f t="shared" si="5"/>
         <v>19.5</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <f t="shared" si="6"/>
         <v>184.875</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="8">
         <f t="shared" si="7"/>
         <v>19.5</v>
       </c>
@@ -2134,35 +2134,35 @@
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="8">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="7">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="4">
         <f t="shared" si="6"/>
         <v>185</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="8">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
@@ -2171,35 +2171,35 @@
       <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <f t="shared" si="0"/>
         <v>65.125</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <f t="shared" si="2"/>
         <v>65.125</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="8">
         <f t="shared" si="3"/>
         <v>20.5</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="7">
         <f t="shared" si="4"/>
         <v>65.125</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <f t="shared" si="5"/>
         <v>20.5</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="4">
         <f t="shared" si="6"/>
         <v>185.125</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="8">
         <f t="shared" si="7"/>
         <v>20.5</v>
       </c>
@@ -2208,35 +2208,35 @@
       <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <f t="shared" si="0"/>
         <v>65.25</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <f t="shared" si="2"/>
         <v>65.25</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="8">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="7">
         <f t="shared" si="4"/>
         <v>65.25</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <f t="shared" si="6"/>
         <v>185.25</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="8">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
@@ -2245,35 +2245,35 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <f t="shared" si="0"/>
         <v>65.375</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <f t="shared" si="2"/>
         <v>65.375</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <f t="shared" si="3"/>
         <v>21.5</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="7">
         <f t="shared" si="4"/>
         <v>65.375</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <f t="shared" si="5"/>
         <v>21.5</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <f t="shared" si="6"/>
         <v>185.375</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="8">
         <f t="shared" si="7"/>
         <v>21.5</v>
       </c>
@@ -2282,35 +2282,35 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <f t="shared" si="2"/>
         <v>65.5</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="8">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="7">
         <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="4">
         <f t="shared" si="6"/>
         <v>185.5</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="8">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
@@ -2319,35 +2319,35 @@
       <c r="A49" s="1">
         <v>45</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <f t="shared" si="0"/>
         <v>65.625</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <f t="shared" si="2"/>
         <v>65.625</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="8">
         <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="7">
         <f t="shared" si="4"/>
         <v>65.625</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <f t="shared" si="6"/>
         <v>185.625</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="8">
         <f t="shared" si="7"/>
         <v>22.5</v>
       </c>
@@ -2356,35 +2356,35 @@
       <c r="A50" s="1">
         <v>46</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <f t="shared" si="0"/>
         <v>65.75</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <f t="shared" si="2"/>
         <v>65.75</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="8">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="7">
         <f t="shared" si="4"/>
         <v>65.75</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="4">
         <f t="shared" si="6"/>
         <v>185.75</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="8">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
@@ -2393,35 +2393,35 @@
       <c r="A51" s="1">
         <v>47</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <f t="shared" si="0"/>
         <v>65.875</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <f t="shared" si="2"/>
         <v>65.875</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <f t="shared" si="3"/>
         <v>23.5</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="7">
         <f t="shared" si="4"/>
         <v>65.875</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <f t="shared" si="5"/>
         <v>23.5</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="4">
         <f t="shared" si="6"/>
         <v>185.875</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="8">
         <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
@@ -2430,35 +2430,35 @@
       <c r="A52" s="1">
         <v>48</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="8">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="7">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="4">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="4">
         <f t="shared" si="6"/>
         <v>186</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="8">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
@@ -2467,35 +2467,35 @@
       <c r="A53" s="1">
         <v>49</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <f t="shared" si="0"/>
         <v>66.125</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <f t="shared" si="2"/>
         <v>66.125</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="8">
         <f t="shared" si="3"/>
         <v>24.5</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="7">
         <f t="shared" si="4"/>
         <v>66.125</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <f t="shared" si="5"/>
         <v>24.5</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="4">
         <f t="shared" si="6"/>
         <v>186.125</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="8">
         <f t="shared" si="7"/>
         <v>24.5</v>
       </c>
@@ -2504,35 +2504,35 @@
       <c r="A54" s="1">
         <v>50</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <f t="shared" si="0"/>
         <v>66.25</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <f t="shared" si="2"/>
         <v>66.25</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="8">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="7">
         <f t="shared" si="4"/>
         <v>66.25</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="4">
         <f t="shared" si="6"/>
         <v>186.25</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="8">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
@@ -2541,35 +2541,35 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <f t="shared" si="0"/>
         <v>66.375</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <f t="shared" si="2"/>
         <v>66.375</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="8">
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="7">
         <f t="shared" si="4"/>
         <v>66.375</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="4">
         <f t="shared" si="5"/>
         <v>25.5</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="4">
         <f t="shared" si="6"/>
         <v>186.375</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="8">
         <f t="shared" si="7"/>
         <v>25.5</v>
       </c>
@@ -2578,35 +2578,35 @@
       <c r="A56" s="1">
         <v>52</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <f t="shared" si="0"/>
         <v>66.5</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <f t="shared" si="2"/>
         <v>66.5</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="8">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="7">
         <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="4">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="4">
         <f t="shared" si="6"/>
         <v>186.5</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="8">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
@@ -2615,35 +2615,35 @@
       <c r="A57" s="1">
         <v>53</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <f t="shared" si="0"/>
         <v>66.625</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <f t="shared" si="1"/>
         <v>26.5</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <f t="shared" si="2"/>
         <v>66.625</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <f t="shared" si="3"/>
         <v>26.5</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="7">
         <f t="shared" si="4"/>
         <v>66.625</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <f t="shared" si="5"/>
         <v>26.5</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <f t="shared" si="6"/>
         <v>186.625</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="8">
         <f t="shared" si="7"/>
         <v>26.5</v>
       </c>
@@ -2652,35 +2652,35 @@
       <c r="A58" s="1">
         <v>54</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <f t="shared" si="0"/>
         <v>66.75</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <f t="shared" si="2"/>
         <v>66.75</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="8">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="7">
         <f t="shared" si="4"/>
         <v>66.75</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="4">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="4">
         <f t="shared" si="6"/>
         <v>186.75</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="8">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
@@ -2689,35 +2689,35 @@
       <c r="A59" s="1">
         <v>55</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <f t="shared" si="0"/>
         <v>66.875</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <f t="shared" si="2"/>
         <v>66.875</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="8">
         <f t="shared" si="3"/>
         <v>27.5</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="7">
         <f t="shared" si="4"/>
         <v>66.875</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="4">
         <f t="shared" si="5"/>
         <v>27.5</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="4">
         <f t="shared" si="6"/>
         <v>186.875</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="8">
         <f t="shared" si="7"/>
         <v>27.5</v>
       </c>
@@ -2726,35 +2726,35 @@
       <c r="A60" s="1">
         <v>56</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="8">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="7">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="4">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="4">
         <f t="shared" si="6"/>
         <v>187</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="8">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
@@ -2763,35 +2763,35 @@
       <c r="A61" s="1">
         <v>57</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <f t="shared" si="0"/>
         <v>67.125</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <f t="shared" si="2"/>
         <v>67.125</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="8">
         <f t="shared" si="3"/>
         <v>28.5</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="7">
         <f t="shared" si="4"/>
         <v>67.125</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="4">
         <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="4">
         <f t="shared" si="6"/>
         <v>187.125</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="8">
         <f t="shared" si="7"/>
         <v>28.5</v>
       </c>
@@ -2800,35 +2800,35 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <f t="shared" si="0"/>
         <v>67.25</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <f t="shared" si="2"/>
         <v>67.25</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="8">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="7">
         <f t="shared" si="4"/>
         <v>67.25</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="4">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="4">
         <f t="shared" si="6"/>
         <v>187.25</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="8">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
@@ -2837,35 +2837,35 @@
       <c r="A63" s="1">
         <v>59</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <f t="shared" si="0"/>
         <v>67.375</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <f t="shared" si="1"/>
         <v>29.5</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <f t="shared" si="2"/>
         <v>67.375</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="8">
         <f t="shared" si="3"/>
         <v>29.5</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="7">
         <f t="shared" si="4"/>
         <v>67.375</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="4">
         <f t="shared" si="5"/>
         <v>29.5</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="4">
         <f t="shared" si="6"/>
         <v>187.375</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="8">
         <f t="shared" si="7"/>
         <v>29.5</v>
       </c>
@@ -2874,35 +2874,35 @@
       <c r="A64" s="1">
         <v>60</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="8">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="7">
         <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="4">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="4">
         <f t="shared" si="6"/>
         <v>187.5</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="8">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
@@ -2911,35 +2911,35 @@
       <c r="A65" s="1">
         <v>61</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <f t="shared" si="0"/>
         <v>67.625</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <f t="shared" si="1"/>
         <v>30.5</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <f t="shared" si="2"/>
         <v>67.625</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="8">
         <f t="shared" si="3"/>
         <v>30.5</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="7">
         <f t="shared" si="4"/>
         <v>67.625</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="4">
         <f t="shared" si="5"/>
         <v>30.5</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <f t="shared" si="6"/>
         <v>187.625</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="8">
         <f t="shared" si="7"/>
         <v>30.5</v>
       </c>
@@ -2948,35 +2948,35 @@
       <c r="A66" s="1">
         <v>62</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <f t="shared" si="0"/>
         <v>67.75</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <f t="shared" si="2"/>
         <v>67.75</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="8">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="7">
         <f t="shared" si="4"/>
         <v>67.75</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="4">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="4">
         <f t="shared" si="6"/>
         <v>187.75</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="8">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
@@ -2985,35 +2985,35 @@
       <c r="A67" s="1">
         <v>63</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <f t="shared" si="0"/>
         <v>67.875</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <f t="shared" si="2"/>
         <v>67.875</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="8">
         <f t="shared" si="3"/>
         <v>31.5</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="7">
         <f t="shared" si="4"/>
         <v>67.875</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="4">
         <f t="shared" si="5"/>
         <v>31.5</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="4">
         <f t="shared" si="6"/>
         <v>187.875</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I67" s="8">
         <f t="shared" si="7"/>
         <v>31.5</v>
       </c>
@@ -3022,35 +3022,35 @@
       <c r="A68" s="1">
         <v>64</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="8">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="7">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="4">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="4">
         <f t="shared" si="6"/>
         <v>188</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="8">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
@@ -3059,35 +3059,35 @@
       <c r="A69" s="1">
         <v>65</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <f t="shared" si="0"/>
         <v>68.125</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <f t="shared" si="2"/>
         <v>68.125</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="8">
         <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="7">
         <f t="shared" si="4"/>
         <v>68.125</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="4">
         <f t="shared" si="6"/>
         <v>188.125</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I69" s="8">
         <f t="shared" si="7"/>
         <v>32.5</v>
       </c>
@@ -3096,35 +3096,35 @@
       <c r="A70" s="1">
         <v>66</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <f t="shared" ref="B70:B133" si="8">$N$5+C70/4+2*$N$3</f>
         <v>68.25</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <f t="shared" ref="C70:C133" si="9">A70*$N$2</f>
         <v>33</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <f t="shared" ref="D70:D133" si="10">$N$5+E70/4+2*$N$3</f>
         <v>68.25</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="8">
         <f t="shared" ref="E70:E133" si="11">A70*$N$2</f>
         <v>33</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="7">
         <f t="shared" ref="F70:F133" si="12">$N$5+G70/4+2*$N$3</f>
         <v>68.25</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="4">
         <f t="shared" ref="G70:G133" si="13">A70*$N$2</f>
         <v>33</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="4">
         <f t="shared" ref="H70:H133" si="14">$N$5+I70/4+2*$N$5</f>
         <v>188.25</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I70" s="8">
         <f t="shared" ref="I70:I133" si="15">A70*$N$2</f>
         <v>33</v>
       </c>
@@ -3133,35 +3133,35 @@
       <c r="A71" s="1">
         <v>67</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <f t="shared" si="8"/>
         <v>68.375</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <f t="shared" si="9"/>
         <v>33.5</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <f t="shared" si="10"/>
         <v>68.375</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="8">
         <f t="shared" si="11"/>
         <v>33.5</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="7">
         <f t="shared" si="12"/>
         <v>68.375</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="4">
         <f t="shared" si="13"/>
         <v>33.5</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="4">
         <f t="shared" si="14"/>
         <v>188.375</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I71" s="8">
         <f t="shared" si="15"/>
         <v>33.5</v>
       </c>
@@ -3170,35 +3170,35 @@
       <c r="A72" s="1">
         <v>68</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <f t="shared" si="8"/>
         <v>68.5</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <f t="shared" si="10"/>
         <v>68.5</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="8">
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="7">
         <f t="shared" si="12"/>
         <v>68.5</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="4">
         <f t="shared" si="13"/>
         <v>34</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="4">
         <f t="shared" si="14"/>
         <v>188.5</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I72" s="8">
         <f t="shared" si="15"/>
         <v>34</v>
       </c>
@@ -3207,35 +3207,35 @@
       <c r="A73" s="1">
         <v>69</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <f t="shared" si="8"/>
         <v>68.625</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <f t="shared" si="9"/>
         <v>34.5</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <f t="shared" si="10"/>
         <v>68.625</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="8">
         <f t="shared" si="11"/>
         <v>34.5</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="7">
         <f t="shared" si="12"/>
         <v>68.625</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="4">
         <f t="shared" si="13"/>
         <v>34.5</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="4">
         <f t="shared" si="14"/>
         <v>188.625</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I73" s="8">
         <f t="shared" si="15"/>
         <v>34.5</v>
       </c>
@@ -3244,35 +3244,35 @@
       <c r="A74" s="1">
         <v>70</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <f t="shared" si="8"/>
         <v>68.75</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <f t="shared" si="10"/>
         <v>68.75</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="8">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="7">
         <f t="shared" si="12"/>
         <v>68.75</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="4">
         <f t="shared" si="13"/>
         <v>35</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="4">
         <f t="shared" si="14"/>
         <v>188.75</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="8">
         <f t="shared" si="15"/>
         <v>35</v>
       </c>
@@ -3281,35 +3281,35 @@
       <c r="A75" s="1">
         <v>71</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <f t="shared" si="8"/>
         <v>68.875</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <f t="shared" si="9"/>
         <v>35.5</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <f t="shared" si="10"/>
         <v>68.875</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="8">
         <f t="shared" si="11"/>
         <v>35.5</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="7">
         <f t="shared" si="12"/>
         <v>68.875</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="4">
         <f t="shared" si="13"/>
         <v>35.5</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="4">
         <f t="shared" si="14"/>
         <v>188.875</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I75" s="8">
         <f t="shared" si="15"/>
         <v>35.5</v>
       </c>
@@ -3318,35 +3318,35 @@
       <c r="A76" s="1">
         <v>72</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="8">
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="7">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="4">
         <f t="shared" si="13"/>
         <v>36</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="4">
         <f t="shared" si="14"/>
         <v>189</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I76" s="8">
         <f t="shared" si="15"/>
         <v>36</v>
       </c>
@@ -3355,35 +3355,35 @@
       <c r="A77" s="1">
         <v>73</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <f t="shared" si="8"/>
         <v>69.125</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <f t="shared" si="9"/>
         <v>36.5</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <f t="shared" si="10"/>
         <v>69.125</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="8">
         <f t="shared" si="11"/>
         <v>36.5</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="7">
         <f t="shared" si="12"/>
         <v>69.125</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="4">
         <f t="shared" si="13"/>
         <v>36.5</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="4">
         <f t="shared" si="14"/>
         <v>189.125</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="8">
         <f t="shared" si="15"/>
         <v>36.5</v>
       </c>
@@ -3392,35 +3392,35 @@
       <c r="A78" s="1">
         <v>74</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <f t="shared" si="8"/>
         <v>69.25</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <f t="shared" si="10"/>
         <v>69.25</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="8">
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="7">
         <f t="shared" si="12"/>
         <v>69.25</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="4">
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="4">
         <f t="shared" si="14"/>
         <v>189.25</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I78" s="8">
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
@@ -3429,35 +3429,35 @@
       <c r="A79" s="1">
         <v>75</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <f t="shared" si="8"/>
         <v>69.375</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <f t="shared" si="9"/>
         <v>37.5</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <f t="shared" si="10"/>
         <v>69.375</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="8">
         <f t="shared" si="11"/>
         <v>37.5</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="7">
         <f t="shared" si="12"/>
         <v>69.375</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="4">
         <f t="shared" si="13"/>
         <v>37.5</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="4">
         <f t="shared" si="14"/>
         <v>189.375</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I79" s="8">
         <f t="shared" si="15"/>
         <v>37.5</v>
       </c>
@@ -3466,35 +3466,35 @@
       <c r="A80" s="1">
         <v>76</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <f t="shared" si="8"/>
         <v>69.5</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <f t="shared" si="10"/>
         <v>69.5</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="8">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="7">
         <f t="shared" si="12"/>
         <v>69.5</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="4">
         <f t="shared" si="13"/>
         <v>38</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="4">
         <f t="shared" si="14"/>
         <v>189.5</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I80" s="8">
         <f t="shared" si="15"/>
         <v>38</v>
       </c>
@@ -3503,35 +3503,35 @@
       <c r="A81" s="1">
         <v>77</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <f t="shared" si="8"/>
         <v>69.625</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <f t="shared" si="9"/>
         <v>38.5</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <f t="shared" si="10"/>
         <v>69.625</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="8">
         <f t="shared" si="11"/>
         <v>38.5</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="7">
         <f t="shared" si="12"/>
         <v>69.625</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="4">
         <f t="shared" si="13"/>
         <v>38.5</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="4">
         <f t="shared" si="14"/>
         <v>189.625</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I81" s="8">
         <f t="shared" si="15"/>
         <v>38.5</v>
       </c>
@@ -3540,35 +3540,35 @@
       <c r="A82" s="1">
         <v>78</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <f t="shared" si="8"/>
         <v>69.75</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <f t="shared" si="10"/>
         <v>69.75</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="8">
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="7">
         <f t="shared" si="12"/>
         <v>69.75</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="4">
         <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="4">
         <f t="shared" si="14"/>
         <v>189.75</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I82" s="8">
         <f t="shared" si="15"/>
         <v>39</v>
       </c>
@@ -3577,35 +3577,35 @@
       <c r="A83" s="1">
         <v>79</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <f t="shared" si="8"/>
         <v>69.875</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <f t="shared" si="9"/>
         <v>39.5</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <f t="shared" si="10"/>
         <v>69.875</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="8">
         <f t="shared" si="11"/>
         <v>39.5</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="7">
         <f t="shared" si="12"/>
         <v>69.875</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="4">
         <f t="shared" si="13"/>
         <v>39.5</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="4">
         <f t="shared" si="14"/>
         <v>189.875</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I83" s="8">
         <f t="shared" si="15"/>
         <v>39.5</v>
       </c>
@@ -3614,35 +3614,35 @@
       <c r="A84" s="1">
         <v>80</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="8">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="7">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="4">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="4">
         <f t="shared" si="14"/>
         <v>190</v>
       </c>
-      <c r="I84" s="10">
+      <c r="I84" s="8">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
@@ -3651,35 +3651,35 @@
       <c r="A85" s="1">
         <v>81</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <f t="shared" si="8"/>
         <v>70.125</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <f t="shared" si="9"/>
         <v>40.5</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <f t="shared" si="10"/>
         <v>70.125</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="8">
         <f t="shared" si="11"/>
         <v>40.5</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="7">
         <f t="shared" si="12"/>
         <v>70.125</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="4">
         <f t="shared" si="13"/>
         <v>40.5</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="4">
         <f t="shared" si="14"/>
         <v>190.125</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I85" s="8">
         <f t="shared" si="15"/>
         <v>40.5</v>
       </c>
@@ -3688,35 +3688,35 @@
       <c r="A86" s="1">
         <v>82</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <f t="shared" si="8"/>
         <v>70.25</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <f t="shared" si="10"/>
         <v>70.25</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="8">
         <f t="shared" si="11"/>
         <v>41</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="7">
         <f t="shared" si="12"/>
         <v>70.25</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="4">
         <f t="shared" si="13"/>
         <v>41</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="4">
         <f t="shared" si="14"/>
         <v>190.25</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I86" s="8">
         <f t="shared" si="15"/>
         <v>41</v>
       </c>
@@ -3725,35 +3725,35 @@
       <c r="A87" s="1">
         <v>83</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <f t="shared" si="8"/>
         <v>70.375</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <f t="shared" si="9"/>
         <v>41.5</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <f t="shared" si="10"/>
         <v>70.375</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="8">
         <f t="shared" si="11"/>
         <v>41.5</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="7">
         <f t="shared" si="12"/>
         <v>70.375</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="4">
         <f t="shared" si="13"/>
         <v>41.5</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="4">
         <f t="shared" si="14"/>
         <v>190.375</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I87" s="8">
         <f t="shared" si="15"/>
         <v>41.5</v>
       </c>
@@ -3762,35 +3762,35 @@
       <c r="A88" s="1">
         <v>84</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <f t="shared" si="8"/>
         <v>70.5</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <f t="shared" si="10"/>
         <v>70.5</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="8">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="7">
         <f t="shared" si="12"/>
         <v>70.5</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="4">
         <f t="shared" si="13"/>
         <v>42</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="4">
         <f t="shared" si="14"/>
         <v>190.5</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I88" s="8">
         <f t="shared" si="15"/>
         <v>42</v>
       </c>
@@ -3799,35 +3799,35 @@
       <c r="A89" s="1">
         <v>85</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <f t="shared" si="8"/>
         <v>70.625</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <f t="shared" si="9"/>
         <v>42.5</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <f t="shared" si="10"/>
         <v>70.625</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="8">
         <f t="shared" si="11"/>
         <v>42.5</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="7">
         <f t="shared" si="12"/>
         <v>70.625</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="4">
         <f t="shared" si="13"/>
         <v>42.5</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="4">
         <f t="shared" si="14"/>
         <v>190.625</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I89" s="8">
         <f t="shared" si="15"/>
         <v>42.5</v>
       </c>
@@ -3836,35 +3836,35 @@
       <c r="A90" s="1">
         <v>86</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <f t="shared" si="8"/>
         <v>70.75</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <f t="shared" si="10"/>
         <v>70.75</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="8">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="7">
         <f t="shared" si="12"/>
         <v>70.75</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="4">
         <f t="shared" si="13"/>
         <v>43</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="4">
         <f t="shared" si="14"/>
         <v>190.75</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I90" s="8">
         <f t="shared" si="15"/>
         <v>43</v>
       </c>
@@ -3873,35 +3873,35 @@
       <c r="A91" s="1">
         <v>87</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <f t="shared" si="8"/>
         <v>70.875</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <f t="shared" si="9"/>
         <v>43.5</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <f t="shared" si="10"/>
         <v>70.875</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="8">
         <f t="shared" si="11"/>
         <v>43.5</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="7">
         <f t="shared" si="12"/>
         <v>70.875</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="4">
         <f t="shared" si="13"/>
         <v>43.5</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="4">
         <f t="shared" si="14"/>
         <v>190.875</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I91" s="8">
         <f t="shared" si="15"/>
         <v>43.5</v>
       </c>
@@ -3910,35 +3910,35 @@
       <c r="A92" s="1">
         <v>88</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="8">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="7">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="4">
         <f t="shared" si="13"/>
         <v>44</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="4">
         <f t="shared" si="14"/>
         <v>191</v>
       </c>
-      <c r="I92" s="10">
+      <c r="I92" s="8">
         <f t="shared" si="15"/>
         <v>44</v>
       </c>
@@ -3947,35 +3947,35 @@
       <c r="A93" s="1">
         <v>89</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <f t="shared" si="8"/>
         <v>71.125</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <f t="shared" si="9"/>
         <v>44.5</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <f t="shared" si="10"/>
         <v>71.125</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="8">
         <f t="shared" si="11"/>
         <v>44.5</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="7">
         <f t="shared" si="12"/>
         <v>71.125</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="4">
         <f t="shared" si="13"/>
         <v>44.5</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="4">
         <f t="shared" si="14"/>
         <v>191.125</v>
       </c>
-      <c r="I93" s="10">
+      <c r="I93" s="8">
         <f t="shared" si="15"/>
         <v>44.5</v>
       </c>
@@ -3984,35 +3984,35 @@
       <c r="A94" s="1">
         <v>90</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <f t="shared" si="8"/>
         <v>71.25</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <f t="shared" si="10"/>
         <v>71.25</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="8">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F94" s="7">
         <f t="shared" si="12"/>
         <v>71.25</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="4">
         <f t="shared" si="13"/>
         <v>45</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="4">
         <f t="shared" si="14"/>
         <v>191.25</v>
       </c>
-      <c r="I94" s="10">
+      <c r="I94" s="8">
         <f t="shared" si="15"/>
         <v>45</v>
       </c>
@@ -4021,35 +4021,35 @@
       <c r="A95" s="1">
         <v>91</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <f t="shared" si="8"/>
         <v>71.375</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <f t="shared" si="9"/>
         <v>45.5</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <f t="shared" si="10"/>
         <v>71.375</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="8">
         <f t="shared" si="11"/>
         <v>45.5</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95" s="7">
         <f t="shared" si="12"/>
         <v>71.375</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="4">
         <f t="shared" si="13"/>
         <v>45.5</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="4">
         <f t="shared" si="14"/>
         <v>191.375</v>
       </c>
-      <c r="I95" s="10">
+      <c r="I95" s="8">
         <f t="shared" si="15"/>
         <v>45.5</v>
       </c>
@@ -4058,35 +4058,35 @@
       <c r="A96" s="1">
         <v>92</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <f t="shared" si="8"/>
         <v>71.5</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <f t="shared" si="10"/>
         <v>71.5</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="8">
         <f t="shared" si="11"/>
         <v>46</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96" s="7">
         <f t="shared" si="12"/>
         <v>71.5</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="4">
         <f t="shared" si="13"/>
         <v>46</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="4">
         <f t="shared" si="14"/>
         <v>191.5</v>
       </c>
-      <c r="I96" s="10">
+      <c r="I96" s="8">
         <f t="shared" si="15"/>
         <v>46</v>
       </c>
@@ -4095,35 +4095,35 @@
       <c r="A97" s="1">
         <v>93</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <f t="shared" si="8"/>
         <v>71.625</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <f t="shared" si="9"/>
         <v>46.5</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <f t="shared" si="10"/>
         <v>71.625</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="8">
         <f t="shared" si="11"/>
         <v>46.5</v>
       </c>
-      <c r="F97" s="9">
+      <c r="F97" s="7">
         <f t="shared" si="12"/>
         <v>71.625</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="4">
         <f t="shared" si="13"/>
         <v>46.5</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="4">
         <f t="shared" si="14"/>
         <v>191.625</v>
       </c>
-      <c r="I97" s="10">
+      <c r="I97" s="8">
         <f t="shared" si="15"/>
         <v>46.5</v>
       </c>
@@ -4132,35 +4132,35 @@
       <c r="A98" s="1">
         <v>94</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <f t="shared" si="8"/>
         <v>71.75</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <f t="shared" si="9"/>
         <v>47</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <f t="shared" si="10"/>
         <v>71.75</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="8">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="7">
         <f t="shared" si="12"/>
         <v>71.75</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="4">
         <f t="shared" si="13"/>
         <v>47</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="4">
         <f t="shared" si="14"/>
         <v>191.75</v>
       </c>
-      <c r="I98" s="10">
+      <c r="I98" s="8">
         <f t="shared" si="15"/>
         <v>47</v>
       </c>
@@ -4169,35 +4169,35 @@
       <c r="A99" s="1">
         <v>95</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <f t="shared" si="8"/>
         <v>71.875</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <f t="shared" si="9"/>
         <v>47.5</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <f t="shared" si="10"/>
         <v>71.875</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="8">
         <f t="shared" si="11"/>
         <v>47.5</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F99" s="7">
         <f t="shared" si="12"/>
         <v>71.875</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="4">
         <f t="shared" si="13"/>
         <v>47.5</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="4">
         <f t="shared" si="14"/>
         <v>191.875</v>
       </c>
-      <c r="I99" s="10">
+      <c r="I99" s="8">
         <f t="shared" si="15"/>
         <v>47.5</v>
       </c>
@@ -4206,35 +4206,35 @@
       <c r="A100" s="1">
         <v>96</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="4">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="8">
         <f t="shared" si="11"/>
         <v>48</v>
       </c>
-      <c r="F100" s="9">
+      <c r="F100" s="7">
         <f t="shared" si="12"/>
         <v>72</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="4">
         <f t="shared" si="13"/>
         <v>48</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H100" s="4">
         <f t="shared" si="14"/>
         <v>192</v>
       </c>
-      <c r="I100" s="10">
+      <c r="I100" s="8">
         <f t="shared" si="15"/>
         <v>48</v>
       </c>
@@ -4243,35 +4243,35 @@
       <c r="A101" s="1">
         <v>97</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <f t="shared" si="8"/>
         <v>72.125</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="4">
         <f t="shared" si="9"/>
         <v>48.5</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <f t="shared" si="10"/>
         <v>72.125</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="8">
         <f t="shared" si="11"/>
         <v>48.5</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F101" s="7">
         <f t="shared" si="12"/>
         <v>72.125</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="4">
         <f t="shared" si="13"/>
         <v>48.5</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="4">
         <f t="shared" si="14"/>
         <v>192.125</v>
       </c>
-      <c r="I101" s="10">
+      <c r="I101" s="8">
         <f t="shared" si="15"/>
         <v>48.5</v>
       </c>
@@ -4280,35 +4280,35 @@
       <c r="A102" s="1">
         <v>98</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <f t="shared" si="8"/>
         <v>72.25</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <f t="shared" si="9"/>
         <v>49</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <f t="shared" si="10"/>
         <v>72.25</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="8">
         <f t="shared" si="11"/>
         <v>49</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="7">
         <f t="shared" si="12"/>
         <v>72.25</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="4">
         <f t="shared" si="13"/>
         <v>49</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102" s="4">
         <f t="shared" si="14"/>
         <v>192.25</v>
       </c>
-      <c r="I102" s="10">
+      <c r="I102" s="8">
         <f t="shared" si="15"/>
         <v>49</v>
       </c>
@@ -4317,35 +4317,35 @@
       <c r="A103" s="1">
         <v>99</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <f t="shared" si="8"/>
         <v>72.375</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4">
         <f t="shared" si="9"/>
         <v>49.5</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <f t="shared" si="10"/>
         <v>72.375</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="8">
         <f t="shared" si="11"/>
         <v>49.5</v>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="7">
         <f t="shared" si="12"/>
         <v>72.375</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="4">
         <f t="shared" si="13"/>
         <v>49.5</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103" s="4">
         <f t="shared" si="14"/>
         <v>192.375</v>
       </c>
-      <c r="I103" s="10">
+      <c r="I103" s="8">
         <f t="shared" si="15"/>
         <v>49.5</v>
       </c>
@@ -4354,35 +4354,35 @@
       <c r="A104" s="1">
         <v>100</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <f t="shared" si="8"/>
         <v>72.5</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <f t="shared" si="10"/>
         <v>72.5</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="8">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F104" s="7">
         <f t="shared" si="12"/>
         <v>72.5</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="4">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H104" s="4">
         <f t="shared" si="14"/>
         <v>192.5</v>
       </c>
-      <c r="I104" s="10">
+      <c r="I104" s="8">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
@@ -4391,35 +4391,35 @@
       <c r="A105" s="1">
         <v>101</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <f t="shared" si="8"/>
         <v>72.625</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <f t="shared" si="10"/>
         <v>72.625</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E105" s="8">
         <f t="shared" si="11"/>
         <v>50.5</v>
       </c>
-      <c r="F105" s="9">
+      <c r="F105" s="7">
         <f t="shared" si="12"/>
         <v>72.625</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="4">
         <f t="shared" si="13"/>
         <v>50.5</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="4">
         <f t="shared" si="14"/>
         <v>192.625</v>
       </c>
-      <c r="I105" s="10">
+      <c r="I105" s="8">
         <f t="shared" si="15"/>
         <v>50.5</v>
       </c>
@@ -4428,35 +4428,35 @@
       <c r="A106" s="1">
         <v>102</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <f t="shared" si="8"/>
         <v>72.75</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <f t="shared" si="9"/>
         <v>51</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <f t="shared" si="10"/>
         <v>72.75</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E106" s="8">
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
-      <c r="F106" s="9">
+      <c r="F106" s="7">
         <f t="shared" si="12"/>
         <v>72.75</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="4">
         <f t="shared" si="13"/>
         <v>51</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="4">
         <f t="shared" si="14"/>
         <v>192.75</v>
       </c>
-      <c r="I106" s="10">
+      <c r="I106" s="8">
         <f t="shared" si="15"/>
         <v>51</v>
       </c>
@@ -4465,35 +4465,35 @@
       <c r="A107" s="1">
         <v>103</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <f t="shared" si="8"/>
         <v>72.875</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <f t="shared" si="9"/>
         <v>51.5</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <f t="shared" si="10"/>
         <v>72.875</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E107" s="8">
         <f t="shared" si="11"/>
         <v>51.5</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F107" s="7">
         <f t="shared" si="12"/>
         <v>72.875</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="4">
         <f t="shared" si="13"/>
         <v>51.5</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107" s="4">
         <f t="shared" si="14"/>
         <v>192.875</v>
       </c>
-      <c r="I107" s="10">
+      <c r="I107" s="8">
         <f t="shared" si="15"/>
         <v>51.5</v>
       </c>
@@ -4502,35 +4502,35 @@
       <c r="A108" s="1">
         <v>104</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="4">
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="E108" s="10">
+      <c r="E108" s="8">
         <f t="shared" si="11"/>
         <v>52</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F108" s="7">
         <f t="shared" si="12"/>
         <v>73</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="4">
         <f t="shared" si="13"/>
         <v>52</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="4">
         <f t="shared" si="14"/>
         <v>193</v>
       </c>
-      <c r="I108" s="10">
+      <c r="I108" s="8">
         <f t="shared" si="15"/>
         <v>52</v>
       </c>
@@ -4539,35 +4539,35 @@
       <c r="A109" s="1">
         <v>105</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <f t="shared" si="8"/>
         <v>73.125</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="4">
         <f t="shared" si="9"/>
         <v>52.5</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <f t="shared" si="10"/>
         <v>73.125</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E109" s="8">
         <f t="shared" si="11"/>
         <v>52.5</v>
       </c>
-      <c r="F109" s="9">
+      <c r="F109" s="7">
         <f t="shared" si="12"/>
         <v>73.125</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="4">
         <f t="shared" si="13"/>
         <v>52.5</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H109" s="4">
         <f t="shared" si="14"/>
         <v>193.125</v>
       </c>
-      <c r="I109" s="10">
+      <c r="I109" s="8">
         <f t="shared" si="15"/>
         <v>52.5</v>
       </c>
@@ -4576,35 +4576,35 @@
       <c r="A110" s="1">
         <v>106</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <f t="shared" si="8"/>
         <v>73.25</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="4">
         <f t="shared" si="9"/>
         <v>53</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <f t="shared" si="10"/>
         <v>73.25</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110" s="8">
         <f t="shared" si="11"/>
         <v>53</v>
       </c>
-      <c r="F110" s="9">
+      <c r="F110" s="7">
         <f t="shared" si="12"/>
         <v>73.25</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="4">
         <f t="shared" si="13"/>
         <v>53</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H110" s="4">
         <f t="shared" si="14"/>
         <v>193.25</v>
       </c>
-      <c r="I110" s="10">
+      <c r="I110" s="8">
         <f t="shared" si="15"/>
         <v>53</v>
       </c>
@@ -4613,35 +4613,35 @@
       <c r="A111" s="1">
         <v>107</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <f t="shared" si="8"/>
         <v>73.375</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4">
         <f t="shared" si="9"/>
         <v>53.5</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <f t="shared" si="10"/>
         <v>73.375</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E111" s="8">
         <f t="shared" si="11"/>
         <v>53.5</v>
       </c>
-      <c r="F111" s="9">
+      <c r="F111" s="7">
         <f t="shared" si="12"/>
         <v>73.375</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="4">
         <f t="shared" si="13"/>
         <v>53.5</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H111" s="4">
         <f t="shared" si="14"/>
         <v>193.375</v>
       </c>
-      <c r="I111" s="10">
+      <c r="I111" s="8">
         <f t="shared" si="15"/>
         <v>53.5</v>
       </c>
@@ -4650,35 +4650,35 @@
       <c r="A112" s="1">
         <v>108</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <f t="shared" si="8"/>
         <v>73.5</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4">
         <f t="shared" si="9"/>
         <v>54</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <f t="shared" si="10"/>
         <v>73.5</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112" s="8">
         <f t="shared" si="11"/>
         <v>54</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F112" s="7">
         <f t="shared" si="12"/>
         <v>73.5</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="4">
         <f t="shared" si="13"/>
         <v>54</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="4">
         <f t="shared" si="14"/>
         <v>193.5</v>
       </c>
-      <c r="I112" s="10">
+      <c r="I112" s="8">
         <f t="shared" si="15"/>
         <v>54</v>
       </c>
@@ -4687,35 +4687,35 @@
       <c r="A113" s="1">
         <v>109</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <f t="shared" si="8"/>
         <v>73.625</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4">
         <f t="shared" si="9"/>
         <v>54.5</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <f t="shared" si="10"/>
         <v>73.625</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E113" s="8">
         <f t="shared" si="11"/>
         <v>54.5</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F113" s="7">
         <f t="shared" si="12"/>
         <v>73.625</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="4">
         <f t="shared" si="13"/>
         <v>54.5</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113" s="4">
         <f t="shared" si="14"/>
         <v>193.625</v>
       </c>
-      <c r="I113" s="10">
+      <c r="I113" s="8">
         <f t="shared" si="15"/>
         <v>54.5</v>
       </c>
@@ -4724,35 +4724,35 @@
       <c r="A114" s="1">
         <v>110</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <f t="shared" si="8"/>
         <v>73.75</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4">
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <f t="shared" si="10"/>
         <v>73.75</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E114" s="8">
         <f t="shared" si="11"/>
         <v>55</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F114" s="7">
         <f t="shared" si="12"/>
         <v>73.75</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="4">
         <f t="shared" si="13"/>
         <v>55</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="4">
         <f t="shared" si="14"/>
         <v>193.75</v>
       </c>
-      <c r="I114" s="10">
+      <c r="I114" s="8">
         <f t="shared" si="15"/>
         <v>55</v>
       </c>
@@ -4761,35 +4761,35 @@
       <c r="A115" s="1">
         <v>111</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="3">
         <f t="shared" si="8"/>
         <v>73.875</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="4">
         <f t="shared" si="9"/>
         <v>55.5</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <f t="shared" si="10"/>
         <v>73.875</v>
       </c>
-      <c r="E115" s="10">
+      <c r="E115" s="8">
         <f t="shared" si="11"/>
         <v>55.5</v>
       </c>
-      <c r="F115" s="9">
+      <c r="F115" s="7">
         <f t="shared" si="12"/>
         <v>73.875</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="4">
         <f t="shared" si="13"/>
         <v>55.5</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H115" s="4">
         <f t="shared" si="14"/>
         <v>193.875</v>
       </c>
-      <c r="I115" s="10">
+      <c r="I115" s="8">
         <f t="shared" si="15"/>
         <v>55.5</v>
       </c>
@@ -4798,35 +4798,35 @@
       <c r="A116" s="1">
         <v>112</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="4">
         <f t="shared" si="9"/>
         <v>56</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116" s="8">
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
-      <c r="F116" s="9">
+      <c r="F116" s="7">
         <f t="shared" si="12"/>
         <v>74</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G116" s="4">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H116" s="4">
         <f t="shared" si="14"/>
         <v>194</v>
       </c>
-      <c r="I116" s="10">
+      <c r="I116" s="8">
         <f t="shared" si="15"/>
         <v>56</v>
       </c>
@@ -4835,35 +4835,35 @@
       <c r="A117" s="1">
         <v>113</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <f t="shared" si="8"/>
         <v>74.125</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="4">
         <f t="shared" si="9"/>
         <v>56.5</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="4">
         <f t="shared" si="10"/>
         <v>74.125</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E117" s="8">
         <f t="shared" si="11"/>
         <v>56.5</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F117" s="7">
         <f t="shared" si="12"/>
         <v>74.125</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G117" s="4">
         <f t="shared" si="13"/>
         <v>56.5</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117" s="4">
         <f t="shared" si="14"/>
         <v>194.125</v>
       </c>
-      <c r="I117" s="10">
+      <c r="I117" s="8">
         <f t="shared" si="15"/>
         <v>56.5</v>
       </c>
@@ -4872,35 +4872,35 @@
       <c r="A118" s="1">
         <v>114</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <f t="shared" si="8"/>
         <v>74.25</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="4">
         <f t="shared" si="9"/>
         <v>57</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="4">
         <f t="shared" si="10"/>
         <v>74.25</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="8">
         <f t="shared" si="11"/>
         <v>57</v>
       </c>
-      <c r="F118" s="9">
+      <c r="F118" s="7">
         <f t="shared" si="12"/>
         <v>74.25</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G118" s="4">
         <f t="shared" si="13"/>
         <v>57</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H118" s="4">
         <f t="shared" si="14"/>
         <v>194.25</v>
       </c>
-      <c r="I118" s="10">
+      <c r="I118" s="8">
         <f t="shared" si="15"/>
         <v>57</v>
       </c>
@@ -4909,35 +4909,35 @@
       <c r="A119" s="1">
         <v>115</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <f t="shared" si="8"/>
         <v>74.375</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="4">
         <f t="shared" si="9"/>
         <v>57.5</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <f t="shared" si="10"/>
         <v>74.375</v>
       </c>
-      <c r="E119" s="10">
+      <c r="E119" s="8">
         <f t="shared" si="11"/>
         <v>57.5</v>
       </c>
-      <c r="F119" s="9">
+      <c r="F119" s="7">
         <f t="shared" si="12"/>
         <v>74.375</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="4">
         <f t="shared" si="13"/>
         <v>57.5</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119" s="4">
         <f t="shared" si="14"/>
         <v>194.375</v>
       </c>
-      <c r="I119" s="10">
+      <c r="I119" s="8">
         <f t="shared" si="15"/>
         <v>57.5</v>
       </c>
@@ -4946,35 +4946,35 @@
       <c r="A120" s="1">
         <v>116</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="3">
         <f t="shared" si="8"/>
         <v>74.5</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="4">
         <f t="shared" si="9"/>
         <v>58</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <f t="shared" si="10"/>
         <v>74.5</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E120" s="8">
         <f t="shared" si="11"/>
         <v>58</v>
       </c>
-      <c r="F120" s="9">
+      <c r="F120" s="7">
         <f t="shared" si="12"/>
         <v>74.5</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="4">
         <f t="shared" si="13"/>
         <v>58</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120" s="4">
         <f t="shared" si="14"/>
         <v>194.5</v>
       </c>
-      <c r="I120" s="10">
+      <c r="I120" s="8">
         <f t="shared" si="15"/>
         <v>58</v>
       </c>
@@ -4983,35 +4983,35 @@
       <c r="A121" s="1">
         <v>117</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="3">
         <f t="shared" si="8"/>
         <v>74.625</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="4">
         <f t="shared" si="9"/>
         <v>58.5</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <f t="shared" si="10"/>
         <v>74.625</v>
       </c>
-      <c r="E121" s="10">
+      <c r="E121" s="8">
         <f t="shared" si="11"/>
         <v>58.5</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F121" s="7">
         <f t="shared" si="12"/>
         <v>74.625</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="4">
         <f t="shared" si="13"/>
         <v>58.5</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="4">
         <f t="shared" si="14"/>
         <v>194.625</v>
       </c>
-      <c r="I121" s="10">
+      <c r="I121" s="8">
         <f t="shared" si="15"/>
         <v>58.5</v>
       </c>
@@ -5020,35 +5020,35 @@
       <c r="A122" s="1">
         <v>118</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="3">
         <f t="shared" si="8"/>
         <v>74.75</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="4">
         <f t="shared" si="9"/>
         <v>59</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <f t="shared" si="10"/>
         <v>74.75</v>
       </c>
-      <c r="E122" s="10">
+      <c r="E122" s="8">
         <f t="shared" si="11"/>
         <v>59</v>
       </c>
-      <c r="F122" s="9">
+      <c r="F122" s="7">
         <f t="shared" si="12"/>
         <v>74.75</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="4">
         <f t="shared" si="13"/>
         <v>59</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122" s="4">
         <f t="shared" si="14"/>
         <v>194.75</v>
       </c>
-      <c r="I122" s="10">
+      <c r="I122" s="8">
         <f t="shared" si="15"/>
         <v>59</v>
       </c>
@@ -5057,35 +5057,35 @@
       <c r="A123" s="1">
         <v>119</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="3">
         <f t="shared" si="8"/>
         <v>74.875</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="4">
         <f t="shared" si="9"/>
         <v>59.5</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <f t="shared" si="10"/>
         <v>74.875</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E123" s="8">
         <f t="shared" si="11"/>
         <v>59.5</v>
       </c>
-      <c r="F123" s="9">
+      <c r="F123" s="7">
         <f t="shared" si="12"/>
         <v>74.875</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G123" s="4">
         <f t="shared" si="13"/>
         <v>59.5</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123" s="4">
         <f t="shared" si="14"/>
         <v>194.875</v>
       </c>
-      <c r="I123" s="10">
+      <c r="I123" s="8">
         <f t="shared" si="15"/>
         <v>59.5</v>
       </c>
@@ -5094,35 +5094,35 @@
       <c r="A124" s="1">
         <v>120</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="3">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="4">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="4">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="E124" s="10">
+      <c r="E124" s="8">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F124" s="7">
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G124" s="4">
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="H124" s="5">
+      <c r="H124" s="4">
         <f t="shared" si="14"/>
         <v>195</v>
       </c>
-      <c r="I124" s="10">
+      <c r="I124" s="8">
         <f t="shared" si="15"/>
         <v>60</v>
       </c>
@@ -5131,35 +5131,35 @@
       <c r="A125" s="1">
         <v>121</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="3">
         <f t="shared" si="8"/>
         <v>75.125</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="4">
         <f t="shared" si="9"/>
         <v>60.5</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="4">
         <f t="shared" si="10"/>
         <v>75.125</v>
       </c>
-      <c r="E125" s="10">
+      <c r="E125" s="8">
         <f t="shared" si="11"/>
         <v>60.5</v>
       </c>
-      <c r="F125" s="9">
+      <c r="F125" s="7">
         <f t="shared" si="12"/>
         <v>75.125</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G125" s="4">
         <f t="shared" si="13"/>
         <v>60.5</v>
       </c>
-      <c r="H125" s="5">
+      <c r="H125" s="4">
         <f t="shared" si="14"/>
         <v>195.125</v>
       </c>
-      <c r="I125" s="10">
+      <c r="I125" s="8">
         <f t="shared" si="15"/>
         <v>60.5</v>
       </c>
@@ -5168,35 +5168,35 @@
       <c r="A126" s="1">
         <v>122</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="3">
         <f t="shared" si="8"/>
         <v>75.25</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="4">
         <f t="shared" si="9"/>
         <v>61</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <f t="shared" si="10"/>
         <v>75.25</v>
       </c>
-      <c r="E126" s="10">
+      <c r="E126" s="8">
         <f t="shared" si="11"/>
         <v>61</v>
       </c>
-      <c r="F126" s="9">
+      <c r="F126" s="7">
         <f t="shared" si="12"/>
         <v>75.25</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="4">
         <f t="shared" si="13"/>
         <v>61</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126" s="4">
         <f t="shared" si="14"/>
         <v>195.25</v>
       </c>
-      <c r="I126" s="10">
+      <c r="I126" s="8">
         <f t="shared" si="15"/>
         <v>61</v>
       </c>
@@ -5205,35 +5205,35 @@
       <c r="A127" s="1">
         <v>123</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="3">
         <f t="shared" si="8"/>
         <v>75.375</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4">
         <f t="shared" si="9"/>
         <v>61.5</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <f t="shared" si="10"/>
         <v>75.375</v>
       </c>
-      <c r="E127" s="10">
+      <c r="E127" s="8">
         <f t="shared" si="11"/>
         <v>61.5</v>
       </c>
-      <c r="F127" s="9">
+      <c r="F127" s="7">
         <f t="shared" si="12"/>
         <v>75.375</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G127" s="4">
         <f t="shared" si="13"/>
         <v>61.5</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H127" s="4">
         <f t="shared" si="14"/>
         <v>195.375</v>
       </c>
-      <c r="I127" s="10">
+      <c r="I127" s="8">
         <f t="shared" si="15"/>
         <v>61.5</v>
       </c>
@@ -5242,35 +5242,35 @@
       <c r="A128" s="1">
         <v>124</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="3">
         <f t="shared" si="8"/>
         <v>75.5</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="4">
         <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <f t="shared" si="10"/>
         <v>75.5</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E128" s="8">
         <f t="shared" si="11"/>
         <v>62</v>
       </c>
-      <c r="F128" s="9">
+      <c r="F128" s="7">
         <f t="shared" si="12"/>
         <v>75.5</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="4">
         <f t="shared" si="13"/>
         <v>62</v>
       </c>
-      <c r="H128" s="5">
+      <c r="H128" s="4">
         <f t="shared" si="14"/>
         <v>195.5</v>
       </c>
-      <c r="I128" s="10">
+      <c r="I128" s="8">
         <f t="shared" si="15"/>
         <v>62</v>
       </c>
@@ -5279,35 +5279,35 @@
       <c r="A129" s="1">
         <v>125</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="3">
         <f t="shared" si="8"/>
         <v>75.625</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="4">
         <f t="shared" si="9"/>
         <v>62.5</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="4">
         <f t="shared" si="10"/>
         <v>75.625</v>
       </c>
-      <c r="E129" s="10">
+      <c r="E129" s="8">
         <f t="shared" si="11"/>
         <v>62.5</v>
       </c>
-      <c r="F129" s="9">
+      <c r="F129" s="7">
         <f t="shared" si="12"/>
         <v>75.625</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="4">
         <f t="shared" si="13"/>
         <v>62.5</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="4">
         <f t="shared" si="14"/>
         <v>195.625</v>
       </c>
-      <c r="I129" s="10">
+      <c r="I129" s="8">
         <f t="shared" si="15"/>
         <v>62.5</v>
       </c>
@@ -5316,35 +5316,35 @@
       <c r="A130" s="1">
         <v>126</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="3">
         <f t="shared" si="8"/>
         <v>75.75</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="4">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="4">
         <f t="shared" si="10"/>
         <v>75.75</v>
       </c>
-      <c r="E130" s="10">
+      <c r="E130" s="8">
         <f t="shared" si="11"/>
         <v>63</v>
       </c>
-      <c r="F130" s="9">
+      <c r="F130" s="7">
         <f t="shared" si="12"/>
         <v>75.75</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G130" s="4">
         <f t="shared" si="13"/>
         <v>63</v>
       </c>
-      <c r="H130" s="5">
+      <c r="H130" s="4">
         <f t="shared" si="14"/>
         <v>195.75</v>
       </c>
-      <c r="I130" s="10">
+      <c r="I130" s="8">
         <f t="shared" si="15"/>
         <v>63</v>
       </c>
@@ -5353,35 +5353,35 @@
       <c r="A131" s="1">
         <v>127</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="3">
         <f t="shared" si="8"/>
         <v>75.875</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="4">
         <f t="shared" si="9"/>
         <v>63.5</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="4">
         <f t="shared" si="10"/>
         <v>75.875</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="8">
         <f t="shared" si="11"/>
         <v>63.5</v>
       </c>
-      <c r="F131" s="9">
+      <c r="F131" s="7">
         <f t="shared" si="12"/>
         <v>75.875</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G131" s="4">
         <f t="shared" si="13"/>
         <v>63.5</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H131" s="4">
         <f t="shared" si="14"/>
         <v>195.875</v>
       </c>
-      <c r="I131" s="10">
+      <c r="I131" s="8">
         <f t="shared" si="15"/>
         <v>63.5</v>
       </c>
@@ -5390,35 +5390,35 @@
       <c r="A132" s="1">
         <v>128</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="3">
         <f t="shared" si="8"/>
         <v>76</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="4">
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="4">
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="E132" s="10">
+      <c r="E132" s="8">
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="F132" s="9">
+      <c r="F132" s="7">
         <f t="shared" si="12"/>
         <v>76</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G132" s="4">
         <f t="shared" si="13"/>
         <v>64</v>
       </c>
-      <c r="H132" s="5">
+      <c r="H132" s="4">
         <f t="shared" si="14"/>
         <v>196</v>
       </c>
-      <c r="I132" s="10">
+      <c r="I132" s="8">
         <f t="shared" si="15"/>
         <v>64</v>
       </c>
@@ -5427,35 +5427,35 @@
       <c r="A133" s="1">
         <v>129</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="3">
         <f t="shared" si="8"/>
         <v>76.125</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="4">
         <f t="shared" si="9"/>
         <v>64.5</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="4">
         <f t="shared" si="10"/>
         <v>76.125</v>
       </c>
-      <c r="E133" s="10">
+      <c r="E133" s="8">
         <f t="shared" si="11"/>
         <v>64.5</v>
       </c>
-      <c r="F133" s="9">
+      <c r="F133" s="7">
         <f t="shared" si="12"/>
         <v>76.125</v>
       </c>
-      <c r="G133" s="5">
+      <c r="G133" s="4">
         <f t="shared" si="13"/>
         <v>64.5</v>
       </c>
-      <c r="H133" s="5">
+      <c r="H133" s="4">
         <f t="shared" si="14"/>
         <v>196.125</v>
       </c>
-      <c r="I133" s="10">
+      <c r="I133" s="8">
         <f t="shared" si="15"/>
         <v>64.5</v>
       </c>
@@ -5464,35 +5464,35 @@
       <c r="A134" s="1">
         <v>130</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="3">
         <f t="shared" ref="B134:B197" si="16">$N$5+C134/4+2*$N$3</f>
         <v>76.25</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="4">
         <f t="shared" ref="C134:C197" si="17">A134*$N$2</f>
         <v>65</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="4">
         <f t="shared" ref="D134:D197" si="18">$N$5+E134/4+2*$N$3</f>
         <v>76.25</v>
       </c>
-      <c r="E134" s="10">
+      <c r="E134" s="8">
         <f t="shared" ref="E134:E197" si="19">A134*$N$2</f>
         <v>65</v>
       </c>
-      <c r="F134" s="9">
+      <c r="F134" s="7">
         <f t="shared" ref="F134:F197" si="20">$N$5+G134/4+2*$N$3</f>
         <v>76.25</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="4">
         <f t="shared" ref="G134:G197" si="21">A134*$N$2</f>
         <v>65</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="4">
         <f t="shared" ref="H134:H197" si="22">$N$5+I134/4+2*$N$5</f>
         <v>196.25</v>
       </c>
-      <c r="I134" s="10">
+      <c r="I134" s="8">
         <f t="shared" ref="I134:I197" si="23">A134*$N$2</f>
         <v>65</v>
       </c>
@@ -5501,35 +5501,35 @@
       <c r="A135" s="1">
         <v>131</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="3">
         <f t="shared" si="16"/>
         <v>76.375</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="4">
         <f t="shared" si="17"/>
         <v>65.5</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="4">
         <f t="shared" si="18"/>
         <v>76.375</v>
       </c>
-      <c r="E135" s="10">
+      <c r="E135" s="8">
         <f t="shared" si="19"/>
         <v>65.5</v>
       </c>
-      <c r="F135" s="9">
+      <c r="F135" s="7">
         <f t="shared" si="20"/>
         <v>76.375</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G135" s="4">
         <f t="shared" si="21"/>
         <v>65.5</v>
       </c>
-      <c r="H135" s="5">
+      <c r="H135" s="4">
         <f t="shared" si="22"/>
         <v>196.375</v>
       </c>
-      <c r="I135" s="10">
+      <c r="I135" s="8">
         <f t="shared" si="23"/>
         <v>65.5</v>
       </c>
@@ -5538,35 +5538,35 @@
       <c r="A136" s="1">
         <v>132</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="3">
         <f t="shared" si="16"/>
         <v>76.5</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="4">
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="4">
         <f t="shared" si="18"/>
         <v>76.5</v>
       </c>
-      <c r="E136" s="10">
+      <c r="E136" s="8">
         <f t="shared" si="19"/>
         <v>66</v>
       </c>
-      <c r="F136" s="9">
+      <c r="F136" s="7">
         <f t="shared" si="20"/>
         <v>76.5</v>
       </c>
-      <c r="G136" s="5">
+      <c r="G136" s="4">
         <f t="shared" si="21"/>
         <v>66</v>
       </c>
-      <c r="H136" s="5">
+      <c r="H136" s="4">
         <f t="shared" si="22"/>
         <v>196.5</v>
       </c>
-      <c r="I136" s="10">
+      <c r="I136" s="8">
         <f t="shared" si="23"/>
         <v>66</v>
       </c>
@@ -5575,35 +5575,35 @@
       <c r="A137" s="1">
         <v>133</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="3">
         <f t="shared" si="16"/>
         <v>76.625</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="4">
         <f t="shared" si="17"/>
         <v>66.5</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="4">
         <f t="shared" si="18"/>
         <v>76.625</v>
       </c>
-      <c r="E137" s="10">
+      <c r="E137" s="8">
         <f t="shared" si="19"/>
         <v>66.5</v>
       </c>
-      <c r="F137" s="9">
+      <c r="F137" s="7">
         <f t="shared" si="20"/>
         <v>76.625</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G137" s="4">
         <f t="shared" si="21"/>
         <v>66.5</v>
       </c>
-      <c r="H137" s="5">
+      <c r="H137" s="4">
         <f t="shared" si="22"/>
         <v>196.625</v>
       </c>
-      <c r="I137" s="10">
+      <c r="I137" s="8">
         <f t="shared" si="23"/>
         <v>66.5</v>
       </c>
@@ -5612,35 +5612,35 @@
       <c r="A138" s="1">
         <v>134</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="3">
         <f t="shared" si="16"/>
         <v>76.75</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="4">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="4">
         <f t="shared" si="18"/>
         <v>76.75</v>
       </c>
-      <c r="E138" s="10">
+      <c r="E138" s="8">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="F138" s="9">
+      <c r="F138" s="7">
         <f t="shared" si="20"/>
         <v>76.75</v>
       </c>
-      <c r="G138" s="5">
+      <c r="G138" s="4">
         <f t="shared" si="21"/>
         <v>67</v>
       </c>
-      <c r="H138" s="5">
+      <c r="H138" s="4">
         <f t="shared" si="22"/>
         <v>196.75</v>
       </c>
-      <c r="I138" s="10">
+      <c r="I138" s="8">
         <f t="shared" si="23"/>
         <v>67</v>
       </c>
@@ -5649,35 +5649,35 @@
       <c r="A139" s="1">
         <v>135</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="3">
         <f t="shared" si="16"/>
         <v>76.875</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="4">
         <f t="shared" si="17"/>
         <v>67.5</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="4">
         <f t="shared" si="18"/>
         <v>76.875</v>
       </c>
-      <c r="E139" s="10">
+      <c r="E139" s="8">
         <f t="shared" si="19"/>
         <v>67.5</v>
       </c>
-      <c r="F139" s="9">
+      <c r="F139" s="7">
         <f t="shared" si="20"/>
         <v>76.875</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G139" s="4">
         <f t="shared" si="21"/>
         <v>67.5</v>
       </c>
-      <c r="H139" s="5">
+      <c r="H139" s="4">
         <f t="shared" si="22"/>
         <v>196.875</v>
       </c>
-      <c r="I139" s="10">
+      <c r="I139" s="8">
         <f t="shared" si="23"/>
         <v>67.5</v>
       </c>
@@ -5686,35 +5686,35 @@
       <c r="A140" s="1">
         <v>136</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="3">
         <f t="shared" si="16"/>
         <v>77</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="4">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="4">
         <f t="shared" si="18"/>
         <v>77</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E140" s="8">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="F140" s="9">
+      <c r="F140" s="7">
         <f t="shared" si="20"/>
         <v>77</v>
       </c>
-      <c r="G140" s="5">
+      <c r="G140" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
-      <c r="H140" s="5">
+      <c r="H140" s="4">
         <f t="shared" si="22"/>
         <v>197</v>
       </c>
-      <c r="I140" s="10">
+      <c r="I140" s="8">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
@@ -5723,35 +5723,35 @@
       <c r="A141" s="1">
         <v>137</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="3">
         <f t="shared" si="16"/>
         <v>77.125</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="4">
         <f t="shared" si="17"/>
         <v>68.5</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="4">
         <f t="shared" si="18"/>
         <v>77.125</v>
       </c>
-      <c r="E141" s="10">
+      <c r="E141" s="8">
         <f t="shared" si="19"/>
         <v>68.5</v>
       </c>
-      <c r="F141" s="9">
+      <c r="F141" s="7">
         <f t="shared" si="20"/>
         <v>77.125</v>
       </c>
-      <c r="G141" s="5">
+      <c r="G141" s="4">
         <f t="shared" si="21"/>
         <v>68.5</v>
       </c>
-      <c r="H141" s="5">
+      <c r="H141" s="4">
         <f t="shared" si="22"/>
         <v>197.125</v>
       </c>
-      <c r="I141" s="10">
+      <c r="I141" s="8">
         <f t="shared" si="23"/>
         <v>68.5</v>
       </c>
@@ -5760,35 +5760,35 @@
       <c r="A142" s="1">
         <v>138</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="3">
         <f t="shared" si="16"/>
         <v>77.25</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="4">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="4">
         <f t="shared" si="18"/>
         <v>77.25</v>
       </c>
-      <c r="E142" s="10">
+      <c r="E142" s="8">
         <f t="shared" si="19"/>
         <v>69</v>
       </c>
-      <c r="F142" s="9">
+      <c r="F142" s="7">
         <f t="shared" si="20"/>
         <v>77.25</v>
       </c>
-      <c r="G142" s="5">
+      <c r="G142" s="4">
         <f t="shared" si="21"/>
         <v>69</v>
       </c>
-      <c r="H142" s="5">
+      <c r="H142" s="4">
         <f t="shared" si="22"/>
         <v>197.25</v>
       </c>
-      <c r="I142" s="10">
+      <c r="I142" s="8">
         <f t="shared" si="23"/>
         <v>69</v>
       </c>
@@ -5797,35 +5797,35 @@
       <c r="A143" s="1">
         <v>139</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="3">
         <f t="shared" si="16"/>
         <v>77.375</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="4">
         <f t="shared" si="17"/>
         <v>69.5</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="4">
         <f t="shared" si="18"/>
         <v>77.375</v>
       </c>
-      <c r="E143" s="10">
+      <c r="E143" s="8">
         <f t="shared" si="19"/>
         <v>69.5</v>
       </c>
-      <c r="F143" s="9">
+      <c r="F143" s="7">
         <f t="shared" si="20"/>
         <v>77.375</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G143" s="4">
         <f t="shared" si="21"/>
         <v>69.5</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H143" s="4">
         <f t="shared" si="22"/>
         <v>197.375</v>
       </c>
-      <c r="I143" s="10">
+      <c r="I143" s="8">
         <f t="shared" si="23"/>
         <v>69.5</v>
       </c>
@@ -5834,35 +5834,35 @@
       <c r="A144" s="1">
         <v>140</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="3">
         <f t="shared" si="16"/>
         <v>77.5</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="4">
         <f t="shared" si="17"/>
         <v>70</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="4">
         <f t="shared" si="18"/>
         <v>77.5</v>
       </c>
-      <c r="E144" s="10">
+      <c r="E144" s="8">
         <f t="shared" si="19"/>
         <v>70</v>
       </c>
-      <c r="F144" s="9">
+      <c r="F144" s="7">
         <f t="shared" si="20"/>
         <v>77.5</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G144" s="4">
         <f t="shared" si="21"/>
         <v>70</v>
       </c>
-      <c r="H144" s="5">
+      <c r="H144" s="4">
         <f t="shared" si="22"/>
         <v>197.5</v>
       </c>
-      <c r="I144" s="10">
+      <c r="I144" s="8">
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
@@ -5871,35 +5871,35 @@
       <c r="A145" s="1">
         <v>141</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="3">
         <f t="shared" si="16"/>
         <v>77.625</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="4">
         <f t="shared" si="17"/>
         <v>70.5</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="4">
         <f t="shared" si="18"/>
         <v>77.625</v>
       </c>
-      <c r="E145" s="10">
+      <c r="E145" s="8">
         <f t="shared" si="19"/>
         <v>70.5</v>
       </c>
-      <c r="F145" s="9">
+      <c r="F145" s="7">
         <f t="shared" si="20"/>
         <v>77.625</v>
       </c>
-      <c r="G145" s="5">
+      <c r="G145" s="4">
         <f t="shared" si="21"/>
         <v>70.5</v>
       </c>
-      <c r="H145" s="5">
+      <c r="H145" s="4">
         <f t="shared" si="22"/>
         <v>197.625</v>
       </c>
-      <c r="I145" s="10">
+      <c r="I145" s="8">
         <f t="shared" si="23"/>
         <v>70.5</v>
       </c>
@@ -5908,35 +5908,35 @@
       <c r="A146" s="1">
         <v>142</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="3">
         <f t="shared" si="16"/>
         <v>77.75</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="4">
         <f t="shared" si="17"/>
         <v>71</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="4">
         <f t="shared" si="18"/>
         <v>77.75</v>
       </c>
-      <c r="E146" s="10">
+      <c r="E146" s="8">
         <f t="shared" si="19"/>
         <v>71</v>
       </c>
-      <c r="F146" s="9">
+      <c r="F146" s="7">
         <f t="shared" si="20"/>
         <v>77.75</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G146" s="4">
         <f t="shared" si="21"/>
         <v>71</v>
       </c>
-      <c r="H146" s="5">
+      <c r="H146" s="4">
         <f t="shared" si="22"/>
         <v>197.75</v>
       </c>
-      <c r="I146" s="10">
+      <c r="I146" s="8">
         <f t="shared" si="23"/>
         <v>71</v>
       </c>
@@ -5945,35 +5945,35 @@
       <c r="A147" s="1">
         <v>143</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="3">
         <f t="shared" si="16"/>
         <v>77.875</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="4">
         <f t="shared" si="17"/>
         <v>71.5</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="4">
         <f t="shared" si="18"/>
         <v>77.875</v>
       </c>
-      <c r="E147" s="10">
+      <c r="E147" s="8">
         <f t="shared" si="19"/>
         <v>71.5</v>
       </c>
-      <c r="F147" s="9">
+      <c r="F147" s="7">
         <f t="shared" si="20"/>
         <v>77.875</v>
       </c>
-      <c r="G147" s="5">
+      <c r="G147" s="4">
         <f t="shared" si="21"/>
         <v>71.5</v>
       </c>
-      <c r="H147" s="5">
+      <c r="H147" s="4">
         <f t="shared" si="22"/>
         <v>197.875</v>
       </c>
-      <c r="I147" s="10">
+      <c r="I147" s="8">
         <f t="shared" si="23"/>
         <v>71.5</v>
       </c>
@@ -5982,35 +5982,35 @@
       <c r="A148" s="1">
         <v>144</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="3">
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="4">
         <f t="shared" si="17"/>
         <v>72</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="4">
         <f t="shared" si="18"/>
         <v>78</v>
       </c>
-      <c r="E148" s="10">
+      <c r="E148" s="8">
         <f t="shared" si="19"/>
         <v>72</v>
       </c>
-      <c r="F148" s="9">
+      <c r="F148" s="7">
         <f t="shared" si="20"/>
         <v>78</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G148" s="4">
         <f t="shared" si="21"/>
         <v>72</v>
       </c>
-      <c r="H148" s="5">
+      <c r="H148" s="4">
         <f t="shared" si="22"/>
         <v>198</v>
       </c>
-      <c r="I148" s="10">
+      <c r="I148" s="8">
         <f t="shared" si="23"/>
         <v>72</v>
       </c>
@@ -6019,35 +6019,35 @@
       <c r="A149" s="1">
         <v>145</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="3">
         <f t="shared" si="16"/>
         <v>78.125</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="4">
         <f t="shared" si="17"/>
         <v>72.5</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="4">
         <f t="shared" si="18"/>
         <v>78.125</v>
       </c>
-      <c r="E149" s="10">
+      <c r="E149" s="8">
         <f t="shared" si="19"/>
         <v>72.5</v>
       </c>
-      <c r="F149" s="9">
+      <c r="F149" s="7">
         <f t="shared" si="20"/>
         <v>78.125</v>
       </c>
-      <c r="G149" s="5">
+      <c r="G149" s="4">
         <f t="shared" si="21"/>
         <v>72.5</v>
       </c>
-      <c r="H149" s="5">
+      <c r="H149" s="4">
         <f t="shared" si="22"/>
         <v>198.125</v>
       </c>
-      <c r="I149" s="10">
+      <c r="I149" s="8">
         <f t="shared" si="23"/>
         <v>72.5</v>
       </c>
@@ -6056,35 +6056,35 @@
       <c r="A150" s="1">
         <v>146</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="3">
         <f t="shared" si="16"/>
         <v>78.25</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="4">
         <f t="shared" si="17"/>
         <v>73</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="4">
         <f t="shared" si="18"/>
         <v>78.25</v>
       </c>
-      <c r="E150" s="10">
+      <c r="E150" s="8">
         <f t="shared" si="19"/>
         <v>73</v>
       </c>
-      <c r="F150" s="9">
+      <c r="F150" s="7">
         <f t="shared" si="20"/>
         <v>78.25</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G150" s="4">
         <f t="shared" si="21"/>
         <v>73</v>
       </c>
-      <c r="H150" s="5">
+      <c r="H150" s="4">
         <f t="shared" si="22"/>
         <v>198.25</v>
       </c>
-      <c r="I150" s="10">
+      <c r="I150" s="8">
         <f t="shared" si="23"/>
         <v>73</v>
       </c>
@@ -6093,35 +6093,35 @@
       <c r="A151" s="1">
         <v>147</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="3">
         <f t="shared" si="16"/>
         <v>78.375</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4">
         <f t="shared" si="17"/>
         <v>73.5</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="4">
         <f t="shared" si="18"/>
         <v>78.375</v>
       </c>
-      <c r="E151" s="10">
+      <c r="E151" s="8">
         <f t="shared" si="19"/>
         <v>73.5</v>
       </c>
-      <c r="F151" s="9">
+      <c r="F151" s="7">
         <f t="shared" si="20"/>
         <v>78.375</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G151" s="4">
         <f t="shared" si="21"/>
         <v>73.5</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151" s="4">
         <f t="shared" si="22"/>
         <v>198.375</v>
       </c>
-      <c r="I151" s="10">
+      <c r="I151" s="8">
         <f t="shared" si="23"/>
         <v>73.5</v>
       </c>
@@ -6130,35 +6130,35 @@
       <c r="A152" s="1">
         <v>148</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="3">
         <f t="shared" si="16"/>
         <v>78.5</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4">
         <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="4">
         <f t="shared" si="18"/>
         <v>78.5</v>
       </c>
-      <c r="E152" s="10">
+      <c r="E152" s="8">
         <f t="shared" si="19"/>
         <v>74</v>
       </c>
-      <c r="F152" s="9">
+      <c r="F152" s="7">
         <f t="shared" si="20"/>
         <v>78.5</v>
       </c>
-      <c r="G152" s="5">
+      <c r="G152" s="4">
         <f t="shared" si="21"/>
         <v>74</v>
       </c>
-      <c r="H152" s="5">
+      <c r="H152" s="4">
         <f t="shared" si="22"/>
         <v>198.5</v>
       </c>
-      <c r="I152" s="10">
+      <c r="I152" s="8">
         <f t="shared" si="23"/>
         <v>74</v>
       </c>
@@ -6167,35 +6167,35 @@
       <c r="A153" s="1">
         <v>149</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="3">
         <f t="shared" si="16"/>
         <v>78.625</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="4">
         <f t="shared" si="17"/>
         <v>74.5</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="4">
         <f t="shared" si="18"/>
         <v>78.625</v>
       </c>
-      <c r="E153" s="10">
+      <c r="E153" s="8">
         <f t="shared" si="19"/>
         <v>74.5</v>
       </c>
-      <c r="F153" s="9">
+      <c r="F153" s="7">
         <f t="shared" si="20"/>
         <v>78.625</v>
       </c>
-      <c r="G153" s="5">
+      <c r="G153" s="4">
         <f t="shared" si="21"/>
         <v>74.5</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153" s="4">
         <f t="shared" si="22"/>
         <v>198.625</v>
       </c>
-      <c r="I153" s="10">
+      <c r="I153" s="8">
         <f t="shared" si="23"/>
         <v>74.5</v>
       </c>
@@ -6204,35 +6204,35 @@
       <c r="A154" s="1">
         <v>150</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="3">
         <f t="shared" si="16"/>
         <v>78.75</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="4">
         <f t="shared" si="17"/>
         <v>75</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="4">
         <f t="shared" si="18"/>
         <v>78.75</v>
       </c>
-      <c r="E154" s="10">
+      <c r="E154" s="8">
         <f t="shared" si="19"/>
         <v>75</v>
       </c>
-      <c r="F154" s="9">
+      <c r="F154" s="7">
         <f t="shared" si="20"/>
         <v>78.75</v>
       </c>
-      <c r="G154" s="5">
+      <c r="G154" s="4">
         <f t="shared" si="21"/>
         <v>75</v>
       </c>
-      <c r="H154" s="5">
+      <c r="H154" s="4">
         <f t="shared" si="22"/>
         <v>198.75</v>
       </c>
-      <c r="I154" s="10">
+      <c r="I154" s="8">
         <f t="shared" si="23"/>
         <v>75</v>
       </c>
@@ -6241,35 +6241,35 @@
       <c r="A155" s="1">
         <v>151</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="3">
         <f t="shared" si="16"/>
         <v>78.875</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="4">
         <f t="shared" si="17"/>
         <v>75.5</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="4">
         <f t="shared" si="18"/>
         <v>78.875</v>
       </c>
-      <c r="E155" s="10">
+      <c r="E155" s="8">
         <f t="shared" si="19"/>
         <v>75.5</v>
       </c>
-      <c r="F155" s="9">
+      <c r="F155" s="7">
         <f t="shared" si="20"/>
         <v>78.875</v>
       </c>
-      <c r="G155" s="5">
+      <c r="G155" s="4">
         <f t="shared" si="21"/>
         <v>75.5</v>
       </c>
-      <c r="H155" s="5">
+      <c r="H155" s="4">
         <f t="shared" si="22"/>
         <v>198.875</v>
       </c>
-      <c r="I155" s="10">
+      <c r="I155" s="8">
         <f t="shared" si="23"/>
         <v>75.5</v>
       </c>
@@ -6278,35 +6278,35 @@
       <c r="A156" s="1">
         <v>152</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="3">
         <f t="shared" si="16"/>
         <v>79</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="4">
         <f t="shared" si="17"/>
         <v>76</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="4">
         <f t="shared" si="18"/>
         <v>79</v>
       </c>
-      <c r="E156" s="10">
+      <c r="E156" s="8">
         <f t="shared" si="19"/>
         <v>76</v>
       </c>
-      <c r="F156" s="9">
+      <c r="F156" s="7">
         <f t="shared" si="20"/>
         <v>79</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G156" s="4">
         <f t="shared" si="21"/>
         <v>76</v>
       </c>
-      <c r="H156" s="5">
+      <c r="H156" s="4">
         <f t="shared" si="22"/>
         <v>199</v>
       </c>
-      <c r="I156" s="10">
+      <c r="I156" s="8">
         <f t="shared" si="23"/>
         <v>76</v>
       </c>
@@ -6315,35 +6315,35 @@
       <c r="A157" s="1">
         <v>153</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="3">
         <f t="shared" si="16"/>
         <v>79.125</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C157" s="4">
         <f t="shared" si="17"/>
         <v>76.5</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="4">
         <f t="shared" si="18"/>
         <v>79.125</v>
       </c>
-      <c r="E157" s="10">
+      <c r="E157" s="8">
         <f t="shared" si="19"/>
         <v>76.5</v>
       </c>
-      <c r="F157" s="9">
+      <c r="F157" s="7">
         <f t="shared" si="20"/>
         <v>79.125</v>
       </c>
-      <c r="G157" s="5">
+      <c r="G157" s="4">
         <f t="shared" si="21"/>
         <v>76.5</v>
       </c>
-      <c r="H157" s="5">
+      <c r="H157" s="4">
         <f t="shared" si="22"/>
         <v>199.125</v>
       </c>
-      <c r="I157" s="10">
+      <c r="I157" s="8">
         <f t="shared" si="23"/>
         <v>76.5</v>
       </c>
@@ -6352,35 +6352,35 @@
       <c r="A158" s="1">
         <v>154</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="3">
         <f t="shared" si="16"/>
         <v>79.25</v>
       </c>
-      <c r="C158" s="5">
+      <c r="C158" s="4">
         <f t="shared" si="17"/>
         <v>77</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="4">
         <f t="shared" si="18"/>
         <v>79.25</v>
       </c>
-      <c r="E158" s="10">
+      <c r="E158" s="8">
         <f t="shared" si="19"/>
         <v>77</v>
       </c>
-      <c r="F158" s="9">
+      <c r="F158" s="7">
         <f t="shared" si="20"/>
         <v>79.25</v>
       </c>
-      <c r="G158" s="5">
+      <c r="G158" s="4">
         <f t="shared" si="21"/>
         <v>77</v>
       </c>
-      <c r="H158" s="5">
+      <c r="H158" s="4">
         <f t="shared" si="22"/>
         <v>199.25</v>
       </c>
-      <c r="I158" s="10">
+      <c r="I158" s="8">
         <f t="shared" si="23"/>
         <v>77</v>
       </c>
@@ -6389,35 +6389,35 @@
       <c r="A159" s="1">
         <v>155</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="3">
         <f t="shared" si="16"/>
         <v>79.375</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159" s="4">
         <f t="shared" si="17"/>
         <v>77.5</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="4">
         <f t="shared" si="18"/>
         <v>79.375</v>
       </c>
-      <c r="E159" s="10">
+      <c r="E159" s="8">
         <f t="shared" si="19"/>
         <v>77.5</v>
       </c>
-      <c r="F159" s="9">
+      <c r="F159" s="7">
         <f t="shared" si="20"/>
         <v>79.375</v>
       </c>
-      <c r="G159" s="5">
+      <c r="G159" s="4">
         <f t="shared" si="21"/>
         <v>77.5</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159" s="4">
         <f t="shared" si="22"/>
         <v>199.375</v>
       </c>
-      <c r="I159" s="10">
+      <c r="I159" s="8">
         <f t="shared" si="23"/>
         <v>77.5</v>
       </c>
@@ -6426,35 +6426,35 @@
       <c r="A160" s="1">
         <v>156</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="3">
         <f t="shared" si="16"/>
         <v>79.5</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160" s="4">
         <f t="shared" si="17"/>
         <v>78</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="4">
         <f t="shared" si="18"/>
         <v>79.5</v>
       </c>
-      <c r="E160" s="10">
+      <c r="E160" s="8">
         <f t="shared" si="19"/>
         <v>78</v>
       </c>
-      <c r="F160" s="9">
+      <c r="F160" s="7">
         <f t="shared" si="20"/>
         <v>79.5</v>
       </c>
-      <c r="G160" s="5">
+      <c r="G160" s="4">
         <f t="shared" si="21"/>
         <v>78</v>
       </c>
-      <c r="H160" s="5">
+      <c r="H160" s="4">
         <f t="shared" si="22"/>
         <v>199.5</v>
       </c>
-      <c r="I160" s="10">
+      <c r="I160" s="8">
         <f t="shared" si="23"/>
         <v>78</v>
       </c>
@@ -6463,35 +6463,35 @@
       <c r="A161" s="1">
         <v>157</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="3">
         <f t="shared" si="16"/>
         <v>79.625</v>
       </c>
-      <c r="C161" s="5">
+      <c r="C161" s="4">
         <f t="shared" si="17"/>
         <v>78.5</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="4">
         <f t="shared" si="18"/>
         <v>79.625</v>
       </c>
-      <c r="E161" s="10">
+      <c r="E161" s="8">
         <f t="shared" si="19"/>
         <v>78.5</v>
       </c>
-      <c r="F161" s="9">
+      <c r="F161" s="7">
         <f t="shared" si="20"/>
         <v>79.625</v>
       </c>
-      <c r="G161" s="5">
+      <c r="G161" s="4">
         <f t="shared" si="21"/>
         <v>78.5</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161" s="4">
         <f t="shared" si="22"/>
         <v>199.625</v>
       </c>
-      <c r="I161" s="10">
+      <c r="I161" s="8">
         <f t="shared" si="23"/>
         <v>78.5</v>
       </c>
@@ -6500,35 +6500,35 @@
       <c r="A162" s="1">
         <v>158</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="3">
         <f t="shared" si="16"/>
         <v>79.75</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162" s="4">
         <f t="shared" si="17"/>
         <v>79</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="4">
         <f t="shared" si="18"/>
         <v>79.75</v>
       </c>
-      <c r="E162" s="10">
+      <c r="E162" s="8">
         <f t="shared" si="19"/>
         <v>79</v>
       </c>
-      <c r="F162" s="9">
+      <c r="F162" s="7">
         <f t="shared" si="20"/>
         <v>79.75</v>
       </c>
-      <c r="G162" s="5">
+      <c r="G162" s="4">
         <f t="shared" si="21"/>
         <v>79</v>
       </c>
-      <c r="H162" s="5">
+      <c r="H162" s="4">
         <f t="shared" si="22"/>
         <v>199.75</v>
       </c>
-      <c r="I162" s="10">
+      <c r="I162" s="8">
         <f t="shared" si="23"/>
         <v>79</v>
       </c>
@@ -6537,35 +6537,35 @@
       <c r="A163" s="1">
         <v>159</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="3">
         <f t="shared" si="16"/>
         <v>79.875</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C163" s="4">
         <f t="shared" si="17"/>
         <v>79.5</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="4">
         <f t="shared" si="18"/>
         <v>79.875</v>
       </c>
-      <c r="E163" s="10">
+      <c r="E163" s="8">
         <f t="shared" si="19"/>
         <v>79.5</v>
       </c>
-      <c r="F163" s="9">
+      <c r="F163" s="7">
         <f t="shared" si="20"/>
         <v>79.875</v>
       </c>
-      <c r="G163" s="5">
+      <c r="G163" s="4">
         <f t="shared" si="21"/>
         <v>79.5</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H163" s="4">
         <f t="shared" si="22"/>
         <v>199.875</v>
       </c>
-      <c r="I163" s="10">
+      <c r="I163" s="8">
         <f t="shared" si="23"/>
         <v>79.5</v>
       </c>
@@ -6574,35 +6574,35 @@
       <c r="A164" s="1">
         <v>160</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="3">
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C164" s="4">
         <f t="shared" si="17"/>
         <v>80</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="4">
         <f t="shared" si="18"/>
         <v>80</v>
       </c>
-      <c r="E164" s="10">
+      <c r="E164" s="8">
         <f t="shared" si="19"/>
         <v>80</v>
       </c>
-      <c r="F164" s="9">
+      <c r="F164" s="7">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="G164" s="5">
+      <c r="G164" s="4">
         <f t="shared" si="21"/>
         <v>80</v>
       </c>
-      <c r="H164" s="5">
+      <c r="H164" s="4">
         <f t="shared" si="22"/>
         <v>200</v>
       </c>
-      <c r="I164" s="10">
+      <c r="I164" s="8">
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
@@ -6611,35 +6611,35 @@
       <c r="A165" s="1">
         <v>161</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="3">
         <f t="shared" si="16"/>
         <v>80.125</v>
       </c>
-      <c r="C165" s="5">
+      <c r="C165" s="4">
         <f t="shared" si="17"/>
         <v>80.5</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="4">
         <f t="shared" si="18"/>
         <v>80.125</v>
       </c>
-      <c r="E165" s="10">
+      <c r="E165" s="8">
         <f t="shared" si="19"/>
         <v>80.5</v>
       </c>
-      <c r="F165" s="9">
+      <c r="F165" s="7">
         <f t="shared" si="20"/>
         <v>80.125</v>
       </c>
-      <c r="G165" s="5">
+      <c r="G165" s="4">
         <f t="shared" si="21"/>
         <v>80.5</v>
       </c>
-      <c r="H165" s="5">
+      <c r="H165" s="4">
         <f t="shared" si="22"/>
         <v>200.125</v>
       </c>
-      <c r="I165" s="10">
+      <c r="I165" s="8">
         <f t="shared" si="23"/>
         <v>80.5</v>
       </c>
@@ -6648,35 +6648,35 @@
       <c r="A166" s="1">
         <v>162</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="3">
         <f t="shared" si="16"/>
         <v>80.25</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C166" s="4">
         <f t="shared" si="17"/>
         <v>81</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="4">
         <f t="shared" si="18"/>
         <v>80.25</v>
       </c>
-      <c r="E166" s="10">
+      <c r="E166" s="8">
         <f t="shared" si="19"/>
         <v>81</v>
       </c>
-      <c r="F166" s="9">
+      <c r="F166" s="7">
         <f t="shared" si="20"/>
         <v>80.25</v>
       </c>
-      <c r="G166" s="5">
+      <c r="G166" s="4">
         <f t="shared" si="21"/>
         <v>81</v>
       </c>
-      <c r="H166" s="5">
+      <c r="H166" s="4">
         <f t="shared" si="22"/>
         <v>200.25</v>
       </c>
-      <c r="I166" s="10">
+      <c r="I166" s="8">
         <f t="shared" si="23"/>
         <v>81</v>
       </c>
@@ -6685,35 +6685,35 @@
       <c r="A167" s="1">
         <v>163</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="3">
         <f t="shared" si="16"/>
         <v>80.375</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C167" s="4">
         <f t="shared" si="17"/>
         <v>81.5</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="4">
         <f t="shared" si="18"/>
         <v>80.375</v>
       </c>
-      <c r="E167" s="10">
+      <c r="E167" s="8">
         <f t="shared" si="19"/>
         <v>81.5</v>
       </c>
-      <c r="F167" s="9">
+      <c r="F167" s="7">
         <f t="shared" si="20"/>
         <v>80.375</v>
       </c>
-      <c r="G167" s="5">
+      <c r="G167" s="4">
         <f t="shared" si="21"/>
         <v>81.5</v>
       </c>
-      <c r="H167" s="5">
+      <c r="H167" s="4">
         <f t="shared" si="22"/>
         <v>200.375</v>
       </c>
-      <c r="I167" s="10">
+      <c r="I167" s="8">
         <f t="shared" si="23"/>
         <v>81.5</v>
       </c>
@@ -6722,35 +6722,35 @@
       <c r="A168" s="1">
         <v>164</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="3">
         <f t="shared" si="16"/>
         <v>80.5</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168" s="4">
         <f t="shared" si="17"/>
         <v>82</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="4">
         <f t="shared" si="18"/>
         <v>80.5</v>
       </c>
-      <c r="E168" s="10">
+      <c r="E168" s="8">
         <f t="shared" si="19"/>
         <v>82</v>
       </c>
-      <c r="F168" s="9">
+      <c r="F168" s="7">
         <f t="shared" si="20"/>
         <v>80.5</v>
       </c>
-      <c r="G168" s="5">
+      <c r="G168" s="4">
         <f t="shared" si="21"/>
         <v>82</v>
       </c>
-      <c r="H168" s="5">
+      <c r="H168" s="4">
         <f t="shared" si="22"/>
         <v>200.5</v>
       </c>
-      <c r="I168" s="10">
+      <c r="I168" s="8">
         <f t="shared" si="23"/>
         <v>82</v>
       </c>
@@ -6759,35 +6759,35 @@
       <c r="A169" s="1">
         <v>165</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="3">
         <f t="shared" si="16"/>
         <v>80.625</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C169" s="4">
         <f t="shared" si="17"/>
         <v>82.5</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="4">
         <f t="shared" si="18"/>
         <v>80.625</v>
       </c>
-      <c r="E169" s="10">
+      <c r="E169" s="8">
         <f t="shared" si="19"/>
         <v>82.5</v>
       </c>
-      <c r="F169" s="9">
+      <c r="F169" s="7">
         <f t="shared" si="20"/>
         <v>80.625</v>
       </c>
-      <c r="G169" s="5">
+      <c r="G169" s="4">
         <f t="shared" si="21"/>
         <v>82.5</v>
       </c>
-      <c r="H169" s="5">
+      <c r="H169" s="4">
         <f t="shared" si="22"/>
         <v>200.625</v>
       </c>
-      <c r="I169" s="10">
+      <c r="I169" s="8">
         <f t="shared" si="23"/>
         <v>82.5</v>
       </c>
@@ -6796,35 +6796,35 @@
       <c r="A170" s="1">
         <v>166</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="3">
         <f t="shared" si="16"/>
         <v>80.75</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170" s="4">
         <f t="shared" si="17"/>
         <v>83</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="4">
         <f t="shared" si="18"/>
         <v>80.75</v>
       </c>
-      <c r="E170" s="10">
+      <c r="E170" s="8">
         <f t="shared" si="19"/>
         <v>83</v>
       </c>
-      <c r="F170" s="9">
+      <c r="F170" s="7">
         <f t="shared" si="20"/>
         <v>80.75</v>
       </c>
-      <c r="G170" s="5">
+      <c r="G170" s="4">
         <f t="shared" si="21"/>
         <v>83</v>
       </c>
-      <c r="H170" s="5">
+      <c r="H170" s="4">
         <f t="shared" si="22"/>
         <v>200.75</v>
       </c>
-      <c r="I170" s="10">
+      <c r="I170" s="8">
         <f t="shared" si="23"/>
         <v>83</v>
       </c>
@@ -6833,35 +6833,35 @@
       <c r="A171" s="1">
         <v>167</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="3">
         <f t="shared" si="16"/>
         <v>80.875</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171" s="4">
         <f t="shared" si="17"/>
         <v>83.5</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="4">
         <f t="shared" si="18"/>
         <v>80.875</v>
       </c>
-      <c r="E171" s="10">
+      <c r="E171" s="8">
         <f t="shared" si="19"/>
         <v>83.5</v>
       </c>
-      <c r="F171" s="9">
+      <c r="F171" s="7">
         <f t="shared" si="20"/>
         <v>80.875</v>
       </c>
-      <c r="G171" s="5">
+      <c r="G171" s="4">
         <f t="shared" si="21"/>
         <v>83.5</v>
       </c>
-      <c r="H171" s="5">
+      <c r="H171" s="4">
         <f t="shared" si="22"/>
         <v>200.875</v>
       </c>
-      <c r="I171" s="10">
+      <c r="I171" s="8">
         <f t="shared" si="23"/>
         <v>83.5</v>
       </c>
@@ -6870,35 +6870,35 @@
       <c r="A172" s="1">
         <v>168</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="3">
         <f t="shared" si="16"/>
         <v>81</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172" s="4">
         <f t="shared" si="17"/>
         <v>84</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="4">
         <f t="shared" si="18"/>
         <v>81</v>
       </c>
-      <c r="E172" s="10">
+      <c r="E172" s="8">
         <f t="shared" si="19"/>
         <v>84</v>
       </c>
-      <c r="F172" s="9">
+      <c r="F172" s="7">
         <f t="shared" si="20"/>
         <v>81</v>
       </c>
-      <c r="G172" s="5">
+      <c r="G172" s="4">
         <f t="shared" si="21"/>
         <v>84</v>
       </c>
-      <c r="H172" s="5">
+      <c r="H172" s="4">
         <f t="shared" si="22"/>
         <v>201</v>
       </c>
-      <c r="I172" s="10">
+      <c r="I172" s="8">
         <f t="shared" si="23"/>
         <v>84</v>
       </c>
@@ -6907,35 +6907,35 @@
       <c r="A173" s="1">
         <v>169</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="3">
         <f t="shared" si="16"/>
         <v>81.125</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173" s="4">
         <f t="shared" si="17"/>
         <v>84.5</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="4">
         <f t="shared" si="18"/>
         <v>81.125</v>
       </c>
-      <c r="E173" s="10">
+      <c r="E173" s="8">
         <f t="shared" si="19"/>
         <v>84.5</v>
       </c>
-      <c r="F173" s="9">
+      <c r="F173" s="7">
         <f t="shared" si="20"/>
         <v>81.125</v>
       </c>
-      <c r="G173" s="5">
+      <c r="G173" s="4">
         <f t="shared" si="21"/>
         <v>84.5</v>
       </c>
-      <c r="H173" s="5">
+      <c r="H173" s="4">
         <f t="shared" si="22"/>
         <v>201.125</v>
       </c>
-      <c r="I173" s="10">
+      <c r="I173" s="8">
         <f t="shared" si="23"/>
         <v>84.5</v>
       </c>
@@ -6944,35 +6944,35 @@
       <c r="A174" s="1">
         <v>170</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="3">
         <f t="shared" si="16"/>
         <v>81.25</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" s="4">
         <f t="shared" si="17"/>
         <v>85</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="4">
         <f t="shared" si="18"/>
         <v>81.25</v>
       </c>
-      <c r="E174" s="10">
+      <c r="E174" s="8">
         <f t="shared" si="19"/>
         <v>85</v>
       </c>
-      <c r="F174" s="9">
+      <c r="F174" s="7">
         <f t="shared" si="20"/>
         <v>81.25</v>
       </c>
-      <c r="G174" s="5">
+      <c r="G174" s="4">
         <f t="shared" si="21"/>
         <v>85</v>
       </c>
-      <c r="H174" s="5">
+      <c r="H174" s="4">
         <f t="shared" si="22"/>
         <v>201.25</v>
       </c>
-      <c r="I174" s="10">
+      <c r="I174" s="8">
         <f t="shared" si="23"/>
         <v>85</v>
       </c>
@@ -6981,35 +6981,35 @@
       <c r="A175" s="1">
         <v>171</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="3">
         <f t="shared" si="16"/>
         <v>81.375</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C175" s="4">
         <f t="shared" si="17"/>
         <v>85.5</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="4">
         <f t="shared" si="18"/>
         <v>81.375</v>
       </c>
-      <c r="E175" s="10">
+      <c r="E175" s="8">
         <f t="shared" si="19"/>
         <v>85.5</v>
       </c>
-      <c r="F175" s="9">
+      <c r="F175" s="7">
         <f t="shared" si="20"/>
         <v>81.375</v>
       </c>
-      <c r="G175" s="5">
+      <c r="G175" s="4">
         <f t="shared" si="21"/>
         <v>85.5</v>
       </c>
-      <c r="H175" s="5">
+      <c r="H175" s="4">
         <f t="shared" si="22"/>
         <v>201.375</v>
       </c>
-      <c r="I175" s="10">
+      <c r="I175" s="8">
         <f t="shared" si="23"/>
         <v>85.5</v>
       </c>
@@ -7018,35 +7018,35 @@
       <c r="A176" s="1">
         <v>172</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="3">
         <f t="shared" si="16"/>
         <v>81.5</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C176" s="4">
         <f t="shared" si="17"/>
         <v>86</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="4">
         <f t="shared" si="18"/>
         <v>81.5</v>
       </c>
-      <c r="E176" s="10">
+      <c r="E176" s="8">
         <f t="shared" si="19"/>
         <v>86</v>
       </c>
-      <c r="F176" s="9">
+      <c r="F176" s="7">
         <f t="shared" si="20"/>
         <v>81.5</v>
       </c>
-      <c r="G176" s="5">
+      <c r="G176" s="4">
         <f t="shared" si="21"/>
         <v>86</v>
       </c>
-      <c r="H176" s="5">
+      <c r="H176" s="4">
         <f t="shared" si="22"/>
         <v>201.5</v>
       </c>
-      <c r="I176" s="10">
+      <c r="I176" s="8">
         <f t="shared" si="23"/>
         <v>86</v>
       </c>
@@ -7055,35 +7055,35 @@
       <c r="A177" s="1">
         <v>173</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="3">
         <f t="shared" si="16"/>
         <v>81.625</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C177" s="4">
         <f t="shared" si="17"/>
         <v>86.5</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177" s="4">
         <f t="shared" si="18"/>
         <v>81.625</v>
       </c>
-      <c r="E177" s="10">
+      <c r="E177" s="8">
         <f t="shared" si="19"/>
         <v>86.5</v>
       </c>
-      <c r="F177" s="9">
+      <c r="F177" s="7">
         <f t="shared" si="20"/>
         <v>81.625</v>
       </c>
-      <c r="G177" s="5">
+      <c r="G177" s="4">
         <f t="shared" si="21"/>
         <v>86.5</v>
       </c>
-      <c r="H177" s="5">
+      <c r="H177" s="4">
         <f t="shared" si="22"/>
         <v>201.625</v>
       </c>
-      <c r="I177" s="10">
+      <c r="I177" s="8">
         <f t="shared" si="23"/>
         <v>86.5</v>
       </c>
@@ -7092,35 +7092,35 @@
       <c r="A178" s="1">
         <v>174</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="3">
         <f t="shared" si="16"/>
         <v>81.75</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178" s="4">
         <f t="shared" si="17"/>
         <v>87</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178" s="4">
         <f t="shared" si="18"/>
         <v>81.75</v>
       </c>
-      <c r="E178" s="10">
+      <c r="E178" s="8">
         <f t="shared" si="19"/>
         <v>87</v>
       </c>
-      <c r="F178" s="9">
+      <c r="F178" s="7">
         <f t="shared" si="20"/>
         <v>81.75</v>
       </c>
-      <c r="G178" s="5">
+      <c r="G178" s="4">
         <f t="shared" si="21"/>
         <v>87</v>
       </c>
-      <c r="H178" s="5">
+      <c r="H178" s="4">
         <f t="shared" si="22"/>
         <v>201.75</v>
       </c>
-      <c r="I178" s="10">
+      <c r="I178" s="8">
         <f t="shared" si="23"/>
         <v>87</v>
       </c>
@@ -7129,35 +7129,35 @@
       <c r="A179" s="1">
         <v>175</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="3">
         <f t="shared" si="16"/>
         <v>81.875</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179" s="4">
         <f t="shared" si="17"/>
         <v>87.5</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179" s="4">
         <f t="shared" si="18"/>
         <v>81.875</v>
       </c>
-      <c r="E179" s="10">
+      <c r="E179" s="8">
         <f t="shared" si="19"/>
         <v>87.5</v>
       </c>
-      <c r="F179" s="9">
+      <c r="F179" s="7">
         <f t="shared" si="20"/>
         <v>81.875</v>
       </c>
-      <c r="G179" s="5">
+      <c r="G179" s="4">
         <f t="shared" si="21"/>
         <v>87.5</v>
       </c>
-      <c r="H179" s="5">
+      <c r="H179" s="4">
         <f t="shared" si="22"/>
         <v>201.875</v>
       </c>
-      <c r="I179" s="10">
+      <c r="I179" s="8">
         <f t="shared" si="23"/>
         <v>87.5</v>
       </c>
@@ -7166,35 +7166,35 @@
       <c r="A180" s="1">
         <v>176</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="3">
         <f t="shared" si="16"/>
         <v>82</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180" s="4">
         <f t="shared" si="17"/>
         <v>88</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180" s="4">
         <f t="shared" si="18"/>
         <v>82</v>
       </c>
-      <c r="E180" s="10">
+      <c r="E180" s="8">
         <f t="shared" si="19"/>
         <v>88</v>
       </c>
-      <c r="F180" s="9">
+      <c r="F180" s="7">
         <f t="shared" si="20"/>
         <v>82</v>
       </c>
-      <c r="G180" s="5">
+      <c r="G180" s="4">
         <f t="shared" si="21"/>
         <v>88</v>
       </c>
-      <c r="H180" s="5">
+      <c r="H180" s="4">
         <f t="shared" si="22"/>
         <v>202</v>
       </c>
-      <c r="I180" s="10">
+      <c r="I180" s="8">
         <f t="shared" si="23"/>
         <v>88</v>
       </c>
@@ -7203,35 +7203,35 @@
       <c r="A181" s="1">
         <v>177</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="3">
         <f t="shared" si="16"/>
         <v>82.125</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C181" s="4">
         <f t="shared" si="17"/>
         <v>88.5</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181" s="4">
         <f t="shared" si="18"/>
         <v>82.125</v>
       </c>
-      <c r="E181" s="10">
+      <c r="E181" s="8">
         <f t="shared" si="19"/>
         <v>88.5</v>
       </c>
-      <c r="F181" s="9">
+      <c r="F181" s="7">
         <f t="shared" si="20"/>
         <v>82.125</v>
       </c>
-      <c r="G181" s="5">
+      <c r="G181" s="4">
         <f t="shared" si="21"/>
         <v>88.5</v>
       </c>
-      <c r="H181" s="5">
+      <c r="H181" s="4">
         <f t="shared" si="22"/>
         <v>202.125</v>
       </c>
-      <c r="I181" s="10">
+      <c r="I181" s="8">
         <f t="shared" si="23"/>
         <v>88.5</v>
       </c>
@@ -7240,35 +7240,35 @@
       <c r="A182" s="1">
         <v>178</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="3">
         <f t="shared" si="16"/>
         <v>82.25</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C182" s="4">
         <f t="shared" si="17"/>
         <v>89</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182" s="4">
         <f t="shared" si="18"/>
         <v>82.25</v>
       </c>
-      <c r="E182" s="10">
+      <c r="E182" s="8">
         <f t="shared" si="19"/>
         <v>89</v>
       </c>
-      <c r="F182" s="9">
+      <c r="F182" s="7">
         <f t="shared" si="20"/>
         <v>82.25</v>
       </c>
-      <c r="G182" s="5">
+      <c r="G182" s="4">
         <f t="shared" si="21"/>
         <v>89</v>
       </c>
-      <c r="H182" s="5">
+      <c r="H182" s="4">
         <f t="shared" si="22"/>
         <v>202.25</v>
       </c>
-      <c r="I182" s="10">
+      <c r="I182" s="8">
         <f t="shared" si="23"/>
         <v>89</v>
       </c>
@@ -7277,35 +7277,35 @@
       <c r="A183" s="1">
         <v>179</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="3">
         <f t="shared" si="16"/>
         <v>82.375</v>
       </c>
-      <c r="C183" s="5">
+      <c r="C183" s="4">
         <f t="shared" si="17"/>
         <v>89.5</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D183" s="4">
         <f t="shared" si="18"/>
         <v>82.375</v>
       </c>
-      <c r="E183" s="10">
+      <c r="E183" s="8">
         <f t="shared" si="19"/>
         <v>89.5</v>
       </c>
-      <c r="F183" s="9">
+      <c r="F183" s="7">
         <f t="shared" si="20"/>
         <v>82.375</v>
       </c>
-      <c r="G183" s="5">
+      <c r="G183" s="4">
         <f t="shared" si="21"/>
         <v>89.5</v>
       </c>
-      <c r="H183" s="5">
+      <c r="H183" s="4">
         <f t="shared" si="22"/>
         <v>202.375</v>
       </c>
-      <c r="I183" s="10">
+      <c r="I183" s="8">
         <f t="shared" si="23"/>
         <v>89.5</v>
       </c>
@@ -7314,35 +7314,35 @@
       <c r="A184" s="1">
         <v>180</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="3">
         <f t="shared" si="16"/>
         <v>82.5</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184" s="4">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D184" s="4">
         <f t="shared" si="18"/>
         <v>82.5</v>
       </c>
-      <c r="E184" s="10">
+      <c r="E184" s="8">
         <f t="shared" si="19"/>
         <v>90</v>
       </c>
-      <c r="F184" s="9">
+      <c r="F184" s="7">
         <f t="shared" si="20"/>
         <v>82.5</v>
       </c>
-      <c r="G184" s="5">
+      <c r="G184" s="4">
         <f t="shared" si="21"/>
         <v>90</v>
       </c>
-      <c r="H184" s="5">
+      <c r="H184" s="4">
         <f t="shared" si="22"/>
         <v>202.5</v>
       </c>
-      <c r="I184" s="10">
+      <c r="I184" s="8">
         <f t="shared" si="23"/>
         <v>90</v>
       </c>
@@ -7351,35 +7351,35 @@
       <c r="A185" s="1">
         <v>181</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="3">
         <f t="shared" si="16"/>
         <v>82.625</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185" s="4">
         <f t="shared" si="17"/>
         <v>90.5</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D185" s="4">
         <f t="shared" si="18"/>
         <v>82.625</v>
       </c>
-      <c r="E185" s="10">
+      <c r="E185" s="8">
         <f t="shared" si="19"/>
         <v>90.5</v>
       </c>
-      <c r="F185" s="9">
+      <c r="F185" s="7">
         <f t="shared" si="20"/>
         <v>82.625</v>
       </c>
-      <c r="G185" s="5">
+      <c r="G185" s="4">
         <f t="shared" si="21"/>
         <v>90.5</v>
       </c>
-      <c r="H185" s="5">
+      <c r="H185" s="4">
         <f t="shared" si="22"/>
         <v>202.625</v>
       </c>
-      <c r="I185" s="10">
+      <c r="I185" s="8">
         <f t="shared" si="23"/>
         <v>90.5</v>
       </c>
@@ -7388,35 +7388,35 @@
       <c r="A186" s="1">
         <v>182</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="3">
         <f t="shared" si="16"/>
         <v>82.75</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186" s="4">
         <f t="shared" si="17"/>
         <v>91</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="4">
         <f t="shared" si="18"/>
         <v>82.75</v>
       </c>
-      <c r="E186" s="10">
+      <c r="E186" s="8">
         <f t="shared" si="19"/>
         <v>91</v>
       </c>
-      <c r="F186" s="9">
+      <c r="F186" s="7">
         <f t="shared" si="20"/>
         <v>82.75</v>
       </c>
-      <c r="G186" s="5">
+      <c r="G186" s="4">
         <f t="shared" si="21"/>
         <v>91</v>
       </c>
-      <c r="H186" s="5">
+      <c r="H186" s="4">
         <f t="shared" si="22"/>
         <v>202.75</v>
       </c>
-      <c r="I186" s="10">
+      <c r="I186" s="8">
         <f t="shared" si="23"/>
         <v>91</v>
       </c>
@@ -7425,35 +7425,35 @@
       <c r="A187" s="1">
         <v>183</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="3">
         <f t="shared" si="16"/>
         <v>82.875</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187" s="4">
         <f t="shared" si="17"/>
         <v>91.5</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D187" s="4">
         <f t="shared" si="18"/>
         <v>82.875</v>
       </c>
-      <c r="E187" s="10">
+      <c r="E187" s="8">
         <f t="shared" si="19"/>
         <v>91.5</v>
       </c>
-      <c r="F187" s="9">
+      <c r="F187" s="7">
         <f t="shared" si="20"/>
         <v>82.875</v>
       </c>
-      <c r="G187" s="5">
+      <c r="G187" s="4">
         <f t="shared" si="21"/>
         <v>91.5</v>
       </c>
-      <c r="H187" s="5">
+      <c r="H187" s="4">
         <f t="shared" si="22"/>
         <v>202.875</v>
       </c>
-      <c r="I187" s="10">
+      <c r="I187" s="8">
         <f t="shared" si="23"/>
         <v>91.5</v>
       </c>
@@ -7462,35 +7462,35 @@
       <c r="A188" s="1">
         <v>184</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="3">
         <f t="shared" si="16"/>
         <v>83</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="4">
         <f t="shared" si="17"/>
         <v>92</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188" s="4">
         <f t="shared" si="18"/>
         <v>83</v>
       </c>
-      <c r="E188" s="10">
+      <c r="E188" s="8">
         <f t="shared" si="19"/>
         <v>92</v>
       </c>
-      <c r="F188" s="9">
+      <c r="F188" s="7">
         <f t="shared" si="20"/>
         <v>83</v>
       </c>
-      <c r="G188" s="5">
+      <c r="G188" s="4">
         <f t="shared" si="21"/>
         <v>92</v>
       </c>
-      <c r="H188" s="5">
+      <c r="H188" s="4">
         <f t="shared" si="22"/>
         <v>203</v>
       </c>
-      <c r="I188" s="10">
+      <c r="I188" s="8">
         <f t="shared" si="23"/>
         <v>92</v>
       </c>
@@ -7499,35 +7499,35 @@
       <c r="A189" s="1">
         <v>185</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="3">
         <f t="shared" si="16"/>
         <v>83.125</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189" s="4">
         <f t="shared" si="17"/>
         <v>92.5</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189" s="4">
         <f t="shared" si="18"/>
         <v>83.125</v>
       </c>
-      <c r="E189" s="10">
+      <c r="E189" s="8">
         <f t="shared" si="19"/>
         <v>92.5</v>
       </c>
-      <c r="F189" s="9">
+      <c r="F189" s="7">
         <f t="shared" si="20"/>
         <v>83.125</v>
       </c>
-      <c r="G189" s="5">
+      <c r="G189" s="4">
         <f t="shared" si="21"/>
         <v>92.5</v>
       </c>
-      <c r="H189" s="5">
+      <c r="H189" s="4">
         <f t="shared" si="22"/>
         <v>203.125</v>
       </c>
-      <c r="I189" s="10">
+      <c r="I189" s="8">
         <f t="shared" si="23"/>
         <v>92.5</v>
       </c>
@@ -7536,35 +7536,35 @@
       <c r="A190" s="1">
         <v>186</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="3">
         <f t="shared" si="16"/>
         <v>83.25</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="4">
         <f t="shared" si="17"/>
         <v>93</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190" s="4">
         <f t="shared" si="18"/>
         <v>83.25</v>
       </c>
-      <c r="E190" s="10">
+      <c r="E190" s="8">
         <f t="shared" si="19"/>
         <v>93</v>
       </c>
-      <c r="F190" s="9">
+      <c r="F190" s="7">
         <f t="shared" si="20"/>
         <v>83.25</v>
       </c>
-      <c r="G190" s="5">
+      <c r="G190" s="4">
         <f t="shared" si="21"/>
         <v>93</v>
       </c>
-      <c r="H190" s="5">
+      <c r="H190" s="4">
         <f t="shared" si="22"/>
         <v>203.25</v>
       </c>
-      <c r="I190" s="10">
+      <c r="I190" s="8">
         <f t="shared" si="23"/>
         <v>93</v>
       </c>
@@ -7573,35 +7573,35 @@
       <c r="A191" s="1">
         <v>187</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="3">
         <f t="shared" si="16"/>
         <v>83.375</v>
       </c>
-      <c r="C191" s="5">
+      <c r="C191" s="4">
         <f t="shared" si="17"/>
         <v>93.5</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191" s="4">
         <f t="shared" si="18"/>
         <v>83.375</v>
       </c>
-      <c r="E191" s="10">
+      <c r="E191" s="8">
         <f t="shared" si="19"/>
         <v>93.5</v>
       </c>
-      <c r="F191" s="9">
+      <c r="F191" s="7">
         <f t="shared" si="20"/>
         <v>83.375</v>
       </c>
-      <c r="G191" s="5">
+      <c r="G191" s="4">
         <f t="shared" si="21"/>
         <v>93.5</v>
       </c>
-      <c r="H191" s="5">
+      <c r="H191" s="4">
         <f t="shared" si="22"/>
         <v>203.375</v>
       </c>
-      <c r="I191" s="10">
+      <c r="I191" s="8">
         <f t="shared" si="23"/>
         <v>93.5</v>
       </c>
@@ -7610,35 +7610,35 @@
       <c r="A192" s="1">
         <v>188</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="3">
         <f t="shared" si="16"/>
         <v>83.5</v>
       </c>
-      <c r="C192" s="5">
+      <c r="C192" s="4">
         <f t="shared" si="17"/>
         <v>94</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192" s="4">
         <f t="shared" si="18"/>
         <v>83.5</v>
       </c>
-      <c r="E192" s="10">
+      <c r="E192" s="8">
         <f t="shared" si="19"/>
         <v>94</v>
       </c>
-      <c r="F192" s="9">
+      <c r="F192" s="7">
         <f t="shared" si="20"/>
         <v>83.5</v>
       </c>
-      <c r="G192" s="5">
+      <c r="G192" s="4">
         <f t="shared" si="21"/>
         <v>94</v>
       </c>
-      <c r="H192" s="5">
+      <c r="H192" s="4">
         <f t="shared" si="22"/>
         <v>203.5</v>
       </c>
-      <c r="I192" s="10">
+      <c r="I192" s="8">
         <f t="shared" si="23"/>
         <v>94</v>
       </c>
@@ -7647,35 +7647,35 @@
       <c r="A193" s="1">
         <v>189</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="3">
         <f t="shared" si="16"/>
         <v>83.625</v>
       </c>
-      <c r="C193" s="5">
+      <c r="C193" s="4">
         <f t="shared" si="17"/>
         <v>94.5</v>
       </c>
-      <c r="D193" s="5">
+      <c r="D193" s="4">
         <f t="shared" si="18"/>
         <v>83.625</v>
       </c>
-      <c r="E193" s="10">
+      <c r="E193" s="8">
         <f t="shared" si="19"/>
         <v>94.5</v>
       </c>
-      <c r="F193" s="9">
+      <c r="F193" s="7">
         <f t="shared" si="20"/>
         <v>83.625</v>
       </c>
-      <c r="G193" s="5">
+      <c r="G193" s="4">
         <f t="shared" si="21"/>
         <v>94.5</v>
       </c>
-      <c r="H193" s="5">
+      <c r="H193" s="4">
         <f t="shared" si="22"/>
         <v>203.625</v>
       </c>
-      <c r="I193" s="10">
+      <c r="I193" s="8">
         <f t="shared" si="23"/>
         <v>94.5</v>
       </c>
@@ -7684,35 +7684,35 @@
       <c r="A194" s="1">
         <v>190</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="3">
         <f t="shared" si="16"/>
         <v>83.75</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C194" s="4">
         <f t="shared" si="17"/>
         <v>95</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194" s="4">
         <f t="shared" si="18"/>
         <v>83.75</v>
       </c>
-      <c r="E194" s="10">
+      <c r="E194" s="8">
         <f t="shared" si="19"/>
         <v>95</v>
       </c>
-      <c r="F194" s="9">
+      <c r="F194" s="7">
         <f t="shared" si="20"/>
         <v>83.75</v>
       </c>
-      <c r="G194" s="5">
+      <c r="G194" s="4">
         <f t="shared" si="21"/>
         <v>95</v>
       </c>
-      <c r="H194" s="5">
+      <c r="H194" s="4">
         <f t="shared" si="22"/>
         <v>203.75</v>
       </c>
-      <c r="I194" s="10">
+      <c r="I194" s="8">
         <f t="shared" si="23"/>
         <v>95</v>
       </c>
@@ -7721,35 +7721,35 @@
       <c r="A195" s="1">
         <v>191</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="3">
         <f t="shared" si="16"/>
         <v>83.875</v>
       </c>
-      <c r="C195" s="5">
+      <c r="C195" s="4">
         <f t="shared" si="17"/>
         <v>95.5</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="4">
         <f t="shared" si="18"/>
         <v>83.875</v>
       </c>
-      <c r="E195" s="10">
+      <c r="E195" s="8">
         <f t="shared" si="19"/>
         <v>95.5</v>
       </c>
-      <c r="F195" s="9">
+      <c r="F195" s="7">
         <f t="shared" si="20"/>
         <v>83.875</v>
       </c>
-      <c r="G195" s="5">
+      <c r="G195" s="4">
         <f t="shared" si="21"/>
         <v>95.5</v>
       </c>
-      <c r="H195" s="5">
+      <c r="H195" s="4">
         <f t="shared" si="22"/>
         <v>203.875</v>
       </c>
-      <c r="I195" s="10">
+      <c r="I195" s="8">
         <f t="shared" si="23"/>
         <v>95.5</v>
       </c>
@@ -7758,35 +7758,35 @@
       <c r="A196" s="1">
         <v>192</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="3">
         <f t="shared" si="16"/>
         <v>84</v>
       </c>
-      <c r="C196" s="5">
+      <c r="C196" s="4">
         <f t="shared" si="17"/>
         <v>96</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="4">
         <f t="shared" si="18"/>
         <v>84</v>
       </c>
-      <c r="E196" s="10">
+      <c r="E196" s="8">
         <f t="shared" si="19"/>
         <v>96</v>
       </c>
-      <c r="F196" s="9">
+      <c r="F196" s="7">
         <f t="shared" si="20"/>
         <v>84</v>
       </c>
-      <c r="G196" s="5">
+      <c r="G196" s="4">
         <f t="shared" si="21"/>
         <v>96</v>
       </c>
-      <c r="H196" s="5">
+      <c r="H196" s="4">
         <f t="shared" si="22"/>
         <v>204</v>
       </c>
-      <c r="I196" s="10">
+      <c r="I196" s="8">
         <f t="shared" si="23"/>
         <v>96</v>
       </c>
@@ -7795,35 +7795,35 @@
       <c r="A197" s="1">
         <v>193</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="3">
         <f t="shared" si="16"/>
         <v>84.125</v>
       </c>
-      <c r="C197" s="5">
+      <c r="C197" s="4">
         <f t="shared" si="17"/>
         <v>96.5</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197" s="4">
         <f t="shared" si="18"/>
         <v>84.125</v>
       </c>
-      <c r="E197" s="10">
+      <c r="E197" s="8">
         <f t="shared" si="19"/>
         <v>96.5</v>
       </c>
-      <c r="F197" s="9">
+      <c r="F197" s="7">
         <f t="shared" si="20"/>
         <v>84.125</v>
       </c>
-      <c r="G197" s="5">
+      <c r="G197" s="4">
         <f t="shared" si="21"/>
         <v>96.5</v>
       </c>
-      <c r="H197" s="5">
+      <c r="H197" s="4">
         <f t="shared" si="22"/>
         <v>204.125</v>
       </c>
-      <c r="I197" s="10">
+      <c r="I197" s="8">
         <f t="shared" si="23"/>
         <v>96.5</v>
       </c>
@@ -7832,35 +7832,35 @@
       <c r="A198" s="1">
         <v>194</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="3">
         <f t="shared" ref="B198:B205" si="24">$N$5+C198/4+2*$N$3</f>
         <v>84.25</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198" s="4">
         <f t="shared" ref="C198:C205" si="25">A198*$N$2</f>
         <v>97</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="4">
         <f t="shared" ref="D198:D205" si="26">$N$5+E198/4+2*$N$3</f>
         <v>84.25</v>
       </c>
-      <c r="E198" s="10">
+      <c r="E198" s="8">
         <f t="shared" ref="E198:E205" si="27">A198*$N$2</f>
         <v>97</v>
       </c>
-      <c r="F198" s="9">
+      <c r="F198" s="7">
         <f t="shared" ref="F198:F205" si="28">$N$5+G198/4+2*$N$3</f>
         <v>84.25</v>
       </c>
-      <c r="G198" s="5">
+      <c r="G198" s="4">
         <f t="shared" ref="G198:G205" si="29">A198*$N$2</f>
         <v>97</v>
       </c>
-      <c r="H198" s="5">
+      <c r="H198" s="4">
         <f t="shared" ref="H198:H205" si="30">$N$5+I198/4+2*$N$5</f>
         <v>204.25</v>
       </c>
-      <c r="I198" s="10">
+      <c r="I198" s="8">
         <f t="shared" ref="I198:I205" si="31">A198*$N$2</f>
         <v>97</v>
       </c>
@@ -7869,35 +7869,35 @@
       <c r="A199" s="1">
         <v>195</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="3">
         <f t="shared" si="24"/>
         <v>84.375</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C199" s="4">
         <f t="shared" si="25"/>
         <v>97.5</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="4">
         <f t="shared" si="26"/>
         <v>84.375</v>
       </c>
-      <c r="E199" s="10">
+      <c r="E199" s="8">
         <f t="shared" si="27"/>
         <v>97.5</v>
       </c>
-      <c r="F199" s="9">
+      <c r="F199" s="7">
         <f t="shared" si="28"/>
         <v>84.375</v>
       </c>
-      <c r="G199" s="5">
+      <c r="G199" s="4">
         <f t="shared" si="29"/>
         <v>97.5</v>
       </c>
-      <c r="H199" s="5">
+      <c r="H199" s="4">
         <f t="shared" si="30"/>
         <v>204.375</v>
       </c>
-      <c r="I199" s="10">
+      <c r="I199" s="8">
         <f t="shared" si="31"/>
         <v>97.5</v>
       </c>
@@ -7906,35 +7906,35 @@
       <c r="A200" s="1">
         <v>196</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="3">
         <f t="shared" si="24"/>
         <v>84.5</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C200" s="4">
         <f t="shared" si="25"/>
         <v>98</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="4">
         <f t="shared" si="26"/>
         <v>84.5</v>
       </c>
-      <c r="E200" s="10">
+      <c r="E200" s="8">
         <f t="shared" si="27"/>
         <v>98</v>
       </c>
-      <c r="F200" s="9">
+      <c r="F200" s="7">
         <f t="shared" si="28"/>
         <v>84.5</v>
       </c>
-      <c r="G200" s="5">
+      <c r="G200" s="4">
         <f t="shared" si="29"/>
         <v>98</v>
       </c>
-      <c r="H200" s="5">
+      <c r="H200" s="4">
         <f t="shared" si="30"/>
         <v>204.5</v>
       </c>
-      <c r="I200" s="10">
+      <c r="I200" s="8">
         <f t="shared" si="31"/>
         <v>98</v>
       </c>
@@ -7943,35 +7943,35 @@
       <c r="A201" s="1">
         <v>197</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="3">
         <f t="shared" si="24"/>
         <v>84.625</v>
       </c>
-      <c r="C201" s="5">
+      <c r="C201" s="4">
         <f t="shared" si="25"/>
         <v>98.5</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="4">
         <f t="shared" si="26"/>
         <v>84.625</v>
       </c>
-      <c r="E201" s="10">
+      <c r="E201" s="8">
         <f t="shared" si="27"/>
         <v>98.5</v>
       </c>
-      <c r="F201" s="9">
+      <c r="F201" s="7">
         <f t="shared" si="28"/>
         <v>84.625</v>
       </c>
-      <c r="G201" s="5">
+      <c r="G201" s="4">
         <f t="shared" si="29"/>
         <v>98.5</v>
       </c>
-      <c r="H201" s="5">
+      <c r="H201" s="4">
         <f t="shared" si="30"/>
         <v>204.625</v>
       </c>
-      <c r="I201" s="10">
+      <c r="I201" s="8">
         <f t="shared" si="31"/>
         <v>98.5</v>
       </c>
@@ -7980,35 +7980,35 @@
       <c r="A202" s="1">
         <v>198</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="3">
         <f t="shared" si="24"/>
         <v>84.75</v>
       </c>
-      <c r="C202" s="5">
+      <c r="C202" s="4">
         <f t="shared" si="25"/>
         <v>99</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202" s="4">
         <f t="shared" si="26"/>
         <v>84.75</v>
       </c>
-      <c r="E202" s="10">
+      <c r="E202" s="8">
         <f t="shared" si="27"/>
         <v>99</v>
       </c>
-      <c r="F202" s="9">
+      <c r="F202" s="7">
         <f t="shared" si="28"/>
         <v>84.75</v>
       </c>
-      <c r="G202" s="5">
+      <c r="G202" s="4">
         <f t="shared" si="29"/>
         <v>99</v>
       </c>
-      <c r="H202" s="5">
+      <c r="H202" s="4">
         <f t="shared" si="30"/>
         <v>204.75</v>
       </c>
-      <c r="I202" s="10">
+      <c r="I202" s="8">
         <f t="shared" si="31"/>
         <v>99</v>
       </c>
@@ -8017,35 +8017,35 @@
       <c r="A203" s="1">
         <v>199</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="3">
         <f t="shared" si="24"/>
         <v>84.875</v>
       </c>
-      <c r="C203" s="5">
+      <c r="C203" s="4">
         <f t="shared" si="25"/>
         <v>99.5</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="4">
         <f t="shared" si="26"/>
         <v>84.875</v>
       </c>
-      <c r="E203" s="10">
+      <c r="E203" s="8">
         <f t="shared" si="27"/>
         <v>99.5</v>
       </c>
-      <c r="F203" s="9">
+      <c r="F203" s="7">
         <f t="shared" si="28"/>
         <v>84.875</v>
       </c>
-      <c r="G203" s="5">
+      <c r="G203" s="4">
         <f t="shared" si="29"/>
         <v>99.5</v>
       </c>
-      <c r="H203" s="5">
+      <c r="H203" s="4">
         <f t="shared" si="30"/>
         <v>204.875</v>
       </c>
-      <c r="I203" s="10">
+      <c r="I203" s="8">
         <f t="shared" si="31"/>
         <v>99.5</v>
       </c>
@@ -8054,35 +8054,35 @@
       <c r="A204" s="1">
         <v>200</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="3">
         <f t="shared" si="24"/>
         <v>85</v>
       </c>
-      <c r="C204" s="5">
+      <c r="C204" s="4">
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="D204" s="5">
+      <c r="D204" s="4">
         <f t="shared" si="26"/>
         <v>85</v>
       </c>
-      <c r="E204" s="10">
+      <c r="E204" s="8">
         <f t="shared" si="27"/>
         <v>100</v>
       </c>
-      <c r="F204" s="9">
+      <c r="F204" s="7">
         <f t="shared" si="28"/>
         <v>85</v>
       </c>
-      <c r="G204" s="5">
+      <c r="G204" s="4">
         <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="H204" s="5">
+      <c r="H204" s="4">
         <f t="shared" si="30"/>
         <v>205</v>
       </c>
-      <c r="I204" s="10">
+      <c r="I204" s="8">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
@@ -8091,47 +8091,47 @@
       <c r="A205" s="1">
         <v>201</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="3">
         <f t="shared" si="24"/>
         <v>85.125</v>
       </c>
-      <c r="C205" s="5">
+      <c r="C205" s="4">
         <f t="shared" si="25"/>
         <v>100.5</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="4">
         <f t="shared" si="26"/>
         <v>85.125</v>
       </c>
-      <c r="E205" s="10">
+      <c r="E205" s="8">
         <f t="shared" si="27"/>
         <v>100.5</v>
       </c>
-      <c r="F205" s="9">
+      <c r="F205" s="7">
         <f t="shared" si="28"/>
         <v>85.125</v>
       </c>
-      <c r="G205" s="5">
+      <c r="G205" s="4">
         <f t="shared" si="29"/>
         <v>100.5</v>
       </c>
-      <c r="H205" s="5">
+      <c r="H205" s="4">
         <f t="shared" si="30"/>
         <v>205.125</v>
       </c>
-      <c r="I205" s="10">
+      <c r="I205" s="8">
         <f t="shared" si="31"/>
         <v>100.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
